--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1103061.066022502</v>
+        <v>1097328.151840405</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6161534.895507436</v>
+        <v>6161534.895507442</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10293820.40365382</v>
+        <v>10293820.40365383</v>
       </c>
     </row>
     <row r="9">
@@ -1421,16 +1421,16 @@
         <v>136.8526474974355</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="U11" t="n">
         <v>136.8526474974355</v>
       </c>
       <c r="V11" t="n">
-        <v>136.8526474974355</v>
+        <v>91.73526081911027</v>
       </c>
       <c r="W11" t="n">
-        <v>91.73526081911027</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.5398119157411</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>101.7633492585947</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.3123309040087</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>102.2763558910462</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>53.89307085696264</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1531,50 +1531,50 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>136.8526474974355</v>
       </c>
-      <c r="E13" t="n">
+      <c r="I13" t="n">
+        <v>129.4522437353803</v>
+      </c>
+      <c r="J13" t="n">
+        <v>32.23818737808909</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13.77095875701851</v>
+      </c>
+      <c r="R13" t="n">
         <v>136.8526474974355</v>
       </c>
-      <c r="F13" t="n">
-        <v>136.8526474974355</v>
-      </c>
-      <c r="G13" t="n">
-        <v>120.5398119157411</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>81.93106954268876</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>120.5398119157411</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>28.8045510966308</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>91.73526081911029</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="D15" t="n">
-        <v>121.080128509168</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="E15" t="n">
         <v>136.8526474974355</v>
       </c>
       <c r="F15" t="n">
-        <v>136.8526474974355</v>
+        <v>120.5398119157411</v>
       </c>
       <c r="G15" t="n">
-        <v>136.3123309040087</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>95.70202829970727</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>129.4522437353803</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>32.23818737808909</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>120.5398119157411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>136.8526474974355</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>49.44287297700763</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.1743877572077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>185.6172607342155</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>210.7371261741775</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>210.7371261741775</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.7371261741775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.3123309040087</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5.556405232223361</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>88.59524689426644</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.1264674385354</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>208.9505130324892</v>
+        <v>18.4907932956801</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>210.7371261741775</v>
       </c>
       <c r="W19" t="n">
-        <v>7.571893693966465</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7371261741775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>206.7269312421633</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>229.8550019518668</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>102.2763558910462</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>45.61494182021424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>36.1338311471057</v>
       </c>
       <c r="S21" t="n">
-        <v>152.5293386138371</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>123.1418231038707</v>
+        <v>196.0083244307577</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8735408797115</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.1264674385354</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.6904929812991</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.4522437353803</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>138.4217917777051</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.45834220729167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>141.7301764169924</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.1743877572077</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>28.8045510966308</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>165.1021531717909</v>
@@ -2378,10 +2378,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>341.0402653383529</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.3123309040089</v>
+        <v>136.3123309040087</v>
       </c>
       <c r="H24" t="n">
         <v>102.2763558910462</v>
       </c>
       <c r="I24" t="n">
-        <v>53.89307085696264</v>
+        <v>53.89307085696285</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.1264674385354</v>
@@ -2494,10 +2494,10 @@
         <v>154.5408756193934</v>
       </c>
       <c r="I25" t="n">
-        <v>129.4522437353803</v>
+        <v>124.0176781632128</v>
       </c>
       <c r="J25" t="n">
-        <v>32.23818737808909</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.77095875701851</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>138.4217917777051</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>36.85706652769496</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.375456487622</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>28.8045510966308</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>214.6591768661928</v>
       </c>
       <c r="U26" t="n">
-        <v>115.8437924301659</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>138.572796641284</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>20.78200098887094</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>224.251765770427</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2718741608587</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.27935428846975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.375456487622</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>319.7370352927488</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>28.8045510966308</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1914704256355</v>
+        <v>52.72704348892105</v>
       </c>
       <c r="V29" t="n">
-        <v>99.19762391271055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.3123309040089</v>
+        <v>136.3123309040087</v>
       </c>
       <c r="H30" t="n">
         <v>102.2763558910462</v>
       </c>
       <c r="I30" t="n">
-        <v>53.89307085696264</v>
+        <v>53.89307085696285</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>125.7640053491825</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>84.51413756265733</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>129.4522437353803</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>32.23818737808909</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>138.4217917777051</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>208.9505130324892</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>224.251765770427</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.375456487622</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>200.3906320810487</v>
       </c>
       <c r="I32" t="n">
-        <v>112.9256253203615</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>28.8045510966308</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>165.1021531717909</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>214.6591768661928</v>
@@ -3086,16 +3086,16 @@
         <v>251.1914704256355</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>102.2763558910462</v>
       </c>
       <c r="I33" t="n">
-        <v>53.89307085696285</v>
+        <v>53.89307085696264</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.6403715407249</v>
       </c>
       <c r="H34" t="n">
         <v>154.5408756193934</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>129.4522437353803</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>32.23818737808909</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>39.16147471428526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>257.5354415757824</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.375456487622</v>
+        <v>89.07971570357279</v>
       </c>
       <c r="H35" t="n">
         <v>319.7370352927488</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.1743877572077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>28.8045510966308</v>
       </c>
       <c r="S35" t="n">
-        <v>165.1021531717909</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.6591768661928</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1914704256355</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10.20522523579207</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>10.20522523579207</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>53.89307085696264</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>144.6958924866474</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.1264674385354</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.5408756193934</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>129.4522437353803</v>
       </c>
       <c r="J37" t="n">
         <v>32.23818737808909</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>13.77095875701851</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>138.4217917777051</v>
       </c>
       <c r="S37" t="n">
-        <v>208.9505130324892</v>
+        <v>182.2781145506261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>29.45693462809404</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.375456487622</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>319.7370352927488</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.1743877572077</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>28.8045510966308</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>165.1021531717909</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.69162414697416</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.3123309040087</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2763558910462</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>53.89307085696264</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.39137527078684</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>152.5293386138371</v>
       </c>
       <c r="T39" t="n">
         <v>196.0083244307577</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8735408797115</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>142.0609856632398</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>147.5947840844875</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>208.9505130324892</v>
       </c>
       <c r="T40" t="n">
-        <v>53.70946638302396</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2718741608587</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>319.7370352927488</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>119.5955593663648</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.6591768661928</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>282.6065960939986</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3825,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>59.29685751634295</v>
       </c>
       <c r="G42" t="n">
         <v>136.3123309040087</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0781349779029</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>160.5282370333385</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>62.19860522095092</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.77095875701851</v>
       </c>
       <c r="R43" t="n">
         <v>138.4217917777051</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>224.251765770427</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,67 +3983,67 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>134.7643113364011</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>118.700405425102</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>134.7643113364011</v>
       </c>
-      <c r="G44" t="n">
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>134.7643113364011</v>
-      </c>
-      <c r="H44" t="n">
-        <v>118.700405425102</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>28.67350342103371</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>53.89307085696264</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.1338311471057</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>134.7643113364011</v>
       </c>
       <c r="T45" t="n">
-        <v>134.7643113364011</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>134.7643113364011</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>134.7643113364011</v>
       </c>
       <c r="W45" t="n">
-        <v>118.700405425102</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>134.7643113364011</v>
       </c>
     </row>
     <row r="46">
@@ -4144,55 +4144,55 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>118.700405425102</v>
+      </c>
+      <c r="T46" t="n">
         <v>134.7643113364011</v>
       </c>
-      <c r="G46" t="n">
-        <v>124.0124730261229</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="U46" t="n">
         <v>134.7643113364011</v>
       </c>
-      <c r="I46" t="n">
-        <v>129.4522437353803</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>134.7643113364011</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>10.94821179979484</v>
       </c>
       <c r="K11" t="n">
-        <v>120.2688227704264</v>
+        <v>35.7650595287466</v>
       </c>
       <c r="L11" t="n">
-        <v>187.9580786919175</v>
+        <v>103.4543154502378</v>
       </c>
       <c r="M11" t="n">
-        <v>294.9448556720016</v>
+        <v>210.4410924303218</v>
       </c>
       <c r="N11" t="n">
-        <v>408.2765989336879</v>
+        <v>323.7728356920081</v>
       </c>
       <c r="O11" t="n">
-        <v>501.9572891383695</v>
+        <v>417.4535258966897</v>
       </c>
       <c r="P11" t="n">
-        <v>547.4105899897421</v>
+        <v>462.9068267480623</v>
       </c>
       <c r="Q11" t="n">
         <v>547.4105899897421</v>
@@ -5069,13 +5069,13 @@
         <v>380.080086359372</v>
       </c>
       <c r="T11" t="n">
-        <v>380.080086359372</v>
+        <v>241.8450888872149</v>
       </c>
       <c r="U11" t="n">
-        <v>241.8450888872149</v>
+        <v>103.6100914150578</v>
       </c>
       <c r="V11" t="n">
-        <v>103.6100914150578</v>
+        <v>10.94821179979484</v>
       </c>
       <c r="W11" t="n">
         <v>10.94821179979484</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="C12" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="D12" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="E12" t="n">
-        <v>10.94821179979484</v>
+        <v>444.6193281123738</v>
       </c>
       <c r="F12" t="n">
-        <v>10.94821179979484</v>
+        <v>306.3843306402167</v>
       </c>
       <c r="G12" t="n">
-        <v>10.94821179979484</v>
+        <v>168.6951075048543</v>
       </c>
       <c r="H12" t="n">
-        <v>10.94821179979484</v>
+        <v>65.38565710985812</v>
       </c>
       <c r="I12" t="n">
         <v>10.94821179979484</v>
@@ -5133,10 +5133,10 @@
         <v>377.2624872530976</v>
       </c>
       <c r="O12" t="n">
-        <v>485.1030187702697</v>
+        <v>478.9841938184391</v>
       </c>
       <c r="P12" t="n">
-        <v>547.4105899897421</v>
+        <v>541.2917650379114</v>
       </c>
       <c r="Q12" t="n">
         <v>547.4105899897421</v>
@@ -5157,13 +5157,13 @@
         <v>547.4105899897421</v>
       </c>
       <c r="W12" t="n">
-        <v>409.175592517585</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="X12" t="n">
-        <v>270.9405950454278</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.7055975732707</v>
+        <v>547.4105899897421</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>547.4105899897421</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="C13" t="n">
-        <v>547.4105899897421</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="D13" t="n">
-        <v>409.175592517585</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="E13" t="n">
-        <v>270.9405950454278</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="F13" t="n">
-        <v>132.7055975732707</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="G13" t="n">
-        <v>10.94821179979484</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="H13" t="n">
-        <v>10.94821179979484</v>
+        <v>174.2718795911781</v>
       </c>
       <c r="I13" t="n">
-        <v>10.94821179979484</v>
+        <v>43.51203743422827</v>
       </c>
       <c r="J13" t="n">
         <v>10.94821179979484</v>
       </c>
       <c r="K13" t="n">
-        <v>35.5769806941139</v>
+        <v>10.94821179979484</v>
       </c>
       <c r="L13" t="n">
-        <v>171.0611017165751</v>
+        <v>146.432332822256</v>
       </c>
       <c r="M13" t="n">
-        <v>306.5452227390363</v>
+        <v>281.9164538447172</v>
       </c>
       <c r="N13" t="n">
-        <v>311.1074960510894</v>
+        <v>411.9264689672809</v>
       </c>
       <c r="O13" t="n">
-        <v>446.5916170735505</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="P13" t="n">
         <v>547.4105899897421</v>
       </c>
       <c r="Q13" t="n">
-        <v>547.4105899897421</v>
+        <v>533.5005306392184</v>
       </c>
       <c r="R13" t="n">
-        <v>547.4105899897421</v>
+        <v>395.2655331670612</v>
       </c>
       <c r="S13" t="n">
-        <v>547.4105899897421</v>
+        <v>395.2655331670612</v>
       </c>
       <c r="T13" t="n">
-        <v>547.4105899897421</v>
+        <v>395.2655331670612</v>
       </c>
       <c r="U13" t="n">
-        <v>547.4105899897421</v>
+        <v>395.2655331670612</v>
       </c>
       <c r="V13" t="n">
-        <v>547.4105899897421</v>
+        <v>395.2655331670612</v>
       </c>
       <c r="W13" t="n">
-        <v>547.4105899897421</v>
+        <v>395.2655331670612</v>
       </c>
       <c r="X13" t="n">
-        <v>547.4105899897421</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="Y13" t="n">
-        <v>547.4105899897421</v>
+        <v>312.5068770633352</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="C14" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="D14" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="E14" t="n">
-        <v>10.94821179979484</v>
+        <v>409.175592517585</v>
       </c>
       <c r="F14" t="n">
-        <v>10.94821179979484</v>
+        <v>270.9405950454278</v>
       </c>
       <c r="G14" t="n">
-        <v>10.94821179979484</v>
+        <v>132.7055975732707</v>
       </c>
       <c r="H14" t="n">
         <v>10.94821179979484</v>
@@ -5276,22 +5276,22 @@
         <v>10.94821179979484</v>
       </c>
       <c r="J14" t="n">
-        <v>10.94821179979484</v>
+        <v>95.4519750414746</v>
       </c>
       <c r="K14" t="n">
-        <v>35.7650595287466</v>
+        <v>120.2688227704264</v>
       </c>
       <c r="L14" t="n">
-        <v>103.4543154502378</v>
+        <v>187.9580786919175</v>
       </c>
       <c r="M14" t="n">
-        <v>210.4410924303218</v>
+        <v>294.9448556720016</v>
       </c>
       <c r="N14" t="n">
-        <v>323.7728356920081</v>
+        <v>408.2765989336879</v>
       </c>
       <c r="O14" t="n">
-        <v>417.4535258966897</v>
+        <v>501.9572891383695</v>
       </c>
       <c r="P14" t="n">
         <v>547.4105899897421</v>
@@ -5300,28 +5300,28 @@
         <v>547.4105899897421</v>
       </c>
       <c r="R14" t="n">
-        <v>518.3150838315291</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="S14" t="n">
-        <v>518.3150838315291</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="T14" t="n">
-        <v>425.6532042162662</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="U14" t="n">
-        <v>425.6532042162662</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="V14" t="n">
-        <v>287.4182067441091</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="W14" t="n">
-        <v>287.4182067441091</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="X14" t="n">
-        <v>149.183209271952</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
     </row>
     <row r="15">
@@ -5334,16 +5334,16 @@
         <v>547.4105899897421</v>
       </c>
       <c r="C15" t="n">
-        <v>547.4105899897421</v>
+        <v>409.175592517585</v>
       </c>
       <c r="D15" t="n">
-        <v>425.1074298794714</v>
+        <v>270.9405950454278</v>
       </c>
       <c r="E15" t="n">
-        <v>286.8724324073143</v>
+        <v>132.7055975732707</v>
       </c>
       <c r="F15" t="n">
-        <v>148.6374349351572</v>
+        <v>10.94821179979484</v>
       </c>
       <c r="G15" t="n">
         <v>10.94821179979484</v>
@@ -5358,19 +5358,19 @@
         <v>10.94821179979484</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45283962309395</v>
+        <v>39.33401467126324</v>
       </c>
       <c r="L15" t="n">
-        <v>129.9435957645872</v>
+        <v>123.8247708127565</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8971911824671</v>
+        <v>241.7783662306364</v>
       </c>
       <c r="N15" t="n">
-        <v>383.3813122049282</v>
+        <v>377.2624872530976</v>
       </c>
       <c r="O15" t="n">
-        <v>485.1030187702697</v>
+        <v>478.9841938184391</v>
       </c>
       <c r="P15" t="n">
         <v>547.4105899897421</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="C16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="D16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="E16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="F16" t="n">
-        <v>10.94821179979484</v>
+        <v>450.7418745354923</v>
       </c>
       <c r="G16" t="n">
-        <v>10.94821179979484</v>
+        <v>312.5068770633352</v>
       </c>
       <c r="H16" t="n">
-        <v>10.94821179979484</v>
+        <v>174.2718795911781</v>
       </c>
       <c r="I16" t="n">
-        <v>10.94821179979484</v>
+        <v>43.51203743422827</v>
       </c>
       <c r="J16" t="n">
         <v>10.94821179979484</v>
@@ -5443,10 +5443,10 @@
         <v>223.8216969442203</v>
       </c>
       <c r="M16" t="n">
-        <v>359.3058179666815</v>
+        <v>306.5452227390363</v>
       </c>
       <c r="N16" t="n">
-        <v>446.5916170735505</v>
+        <v>311.1074960510894</v>
       </c>
       <c r="O16" t="n">
         <v>446.5916170735505</v>
@@ -5461,25 +5461,25 @@
         <v>547.4105899897421</v>
       </c>
       <c r="S16" t="n">
-        <v>425.6532042162662</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="T16" t="n">
-        <v>287.4182067441091</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="U16" t="n">
-        <v>149.183209271952</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="V16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="W16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="X16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.94821179979484</v>
+        <v>547.4105899897421</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.8589700939342</v>
+        <v>842.9485046967098</v>
       </c>
       <c r="C17" t="n">
-        <v>16.8589700939342</v>
+        <v>842.9485046967098</v>
       </c>
       <c r="D17" t="n">
-        <v>16.8589700939342</v>
+        <v>842.9485046967098</v>
       </c>
       <c r="E17" t="n">
-        <v>16.8589700939342</v>
+        <v>793.0062087603385</v>
       </c>
       <c r="F17" t="n">
-        <v>16.8589700939342</v>
+        <v>580.1404247460177</v>
       </c>
       <c r="G17" t="n">
-        <v>16.8589700939342</v>
+        <v>367.274640731697</v>
       </c>
       <c r="H17" t="n">
-        <v>16.8589700939342</v>
+        <v>154.4088567173763</v>
       </c>
       <c r="I17" t="n">
         <v>16.8589700939342</v>
       </c>
       <c r="J17" t="n">
-        <v>16.8589700939342</v>
+        <v>166.9689860606677</v>
       </c>
       <c r="K17" t="n">
-        <v>225.4887250063699</v>
+        <v>191.7858337896195</v>
       </c>
       <c r="L17" t="n">
-        <v>320.3195393378222</v>
+        <v>259.4750897111106</v>
       </c>
       <c r="M17" t="n">
-        <v>427.3063163179062</v>
+        <v>366.4618666911946</v>
       </c>
       <c r="N17" t="n">
-        <v>540.6380595795926</v>
+        <v>479.793609952881</v>
       </c>
       <c r="O17" t="n">
-        <v>634.3187497842741</v>
+        <v>573.4743001575627</v>
       </c>
       <c r="P17" t="n">
-        <v>842.9485046967098</v>
+        <v>646.795874549854</v>
       </c>
       <c r="Q17" t="n">
         <v>842.9485046967098</v>
@@ -5549,16 +5549,16 @@
         <v>842.9485046967098</v>
       </c>
       <c r="V17" t="n">
-        <v>655.4563221368962</v>
+        <v>842.9485046967098</v>
       </c>
       <c r="W17" t="n">
-        <v>442.5905381225756</v>
+        <v>842.9485046967098</v>
       </c>
       <c r="X17" t="n">
-        <v>229.7247541082549</v>
+        <v>842.9485046967098</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.8589700939342</v>
+        <v>842.9485046967098</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>337.8465573481762</v>
+        <v>624.4701901447899</v>
       </c>
       <c r="C18" t="n">
-        <v>163.3935280670492</v>
+        <v>450.0171608636629</v>
       </c>
       <c r="D18" t="n">
-        <v>163.3935280670492</v>
+        <v>301.0827512024116</v>
       </c>
       <c r="E18" t="n">
-        <v>163.3935280670492</v>
+        <v>301.0827512024116</v>
       </c>
       <c r="F18" t="n">
-        <v>16.8589700939342</v>
+        <v>154.5481932292965</v>
       </c>
       <c r="G18" t="n">
         <v>16.8589700939342</v>
@@ -5595,19 +5595,19 @@
         <v>112.5700875641587</v>
       </c>
       <c r="K18" t="n">
-        <v>321.1998424765943</v>
+        <v>140.9558904356271</v>
       </c>
       <c r="L18" t="n">
-        <v>405.6905986180876</v>
+        <v>225.4466465771203</v>
       </c>
       <c r="M18" t="n">
-        <v>523.6441940359674</v>
+        <v>434.076401489556</v>
       </c>
       <c r="N18" t="n">
-        <v>659.1283150584286</v>
+        <v>569.5605225120172</v>
       </c>
       <c r="O18" t="n">
-        <v>760.8500216237701</v>
+        <v>778.1902774244529</v>
       </c>
       <c r="P18" t="n">
         <v>842.9485046967098</v>
@@ -5625,19 +5625,19 @@
         <v>842.9485046967098</v>
       </c>
       <c r="U18" t="n">
-        <v>842.9485046967098</v>
+        <v>837.3359741591105</v>
       </c>
       <c r="V18" t="n">
-        <v>842.9485046967098</v>
+        <v>837.3359741591105</v>
       </c>
       <c r="W18" t="n">
-        <v>753.4583563186629</v>
+        <v>624.4701901447899</v>
       </c>
       <c r="X18" t="n">
-        <v>545.6068561131301</v>
+        <v>624.4701901447899</v>
       </c>
       <c r="Y18" t="n">
-        <v>337.8465573481762</v>
+        <v>624.4701901447899</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.8589700939342</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="C19" t="n">
-        <v>16.8589700939342</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="D19" t="n">
-        <v>16.8589700939342</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="E19" t="n">
-        <v>16.8589700939342</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="F19" t="n">
-        <v>16.8589700939342</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="G19" t="n">
         <v>16.8589700939342</v>
@@ -5698,25 +5698,25 @@
         <v>842.9485046967098</v>
       </c>
       <c r="S19" t="n">
-        <v>631.8873804214683</v>
+        <v>824.2709357111744</v>
       </c>
       <c r="T19" t="n">
-        <v>631.8873804214683</v>
+        <v>611.4051516968537</v>
       </c>
       <c r="U19" t="n">
-        <v>631.8873804214683</v>
+        <v>611.4051516968537</v>
       </c>
       <c r="V19" t="n">
-        <v>419.0215964071476</v>
+        <v>398.5393676825331</v>
       </c>
       <c r="W19" t="n">
-        <v>411.3732189384946</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="X19" t="n">
-        <v>411.3732189384946</v>
+        <v>185.6735836682124</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.5074349241739</v>
+        <v>185.6735836682124</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>839.3506518350143</v>
+        <v>978.619792057116</v>
       </c>
       <c r="C20" t="n">
-        <v>839.3506518350143</v>
+        <v>609.6572751167043</v>
       </c>
       <c r="D20" t="n">
-        <v>839.3506518350143</v>
+        <v>251.3915765099538</v>
       </c>
       <c r="E20" t="n">
-        <v>453.5623992367701</v>
+        <v>251.3915765099538</v>
       </c>
       <c r="F20" t="n">
-        <v>42.57649444716259</v>
+        <v>251.3915765099538</v>
       </c>
       <c r="G20" t="n">
-        <v>42.57649444716259</v>
+        <v>251.3915765099538</v>
       </c>
       <c r="H20" t="n">
         <v>42.57649444716259</v>
@@ -5753,19 +5753,19 @@
         <v>42.57649444716259</v>
       </c>
       <c r="K20" t="n">
-        <v>67.39334217611434</v>
+        <v>77.75645595824608</v>
       </c>
       <c r="L20" t="n">
-        <v>548.5672005025515</v>
+        <v>558.9303142846832</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.451319286188</v>
+        <v>1085.81443306832</v>
       </c>
       <c r="N20" t="n">
-        <v>1602.335438069825</v>
+        <v>1612.698551851957</v>
       </c>
       <c r="O20" t="n">
-        <v>2073.008307724625</v>
+        <v>2083.371421506757</v>
       </c>
       <c r="P20" t="n">
         <v>2128.824722358129</v>
@@ -5783,19 +5783,19 @@
         <v>2128.824722358129</v>
       </c>
       <c r="U20" t="n">
-        <v>1896.647952709779</v>
+        <v>2128.824722358129</v>
       </c>
       <c r="V20" t="n">
-        <v>1565.585065366208</v>
+        <v>2128.824722358129</v>
       </c>
       <c r="W20" t="n">
-        <v>1212.816410096094</v>
+        <v>2128.824722358129</v>
       </c>
       <c r="X20" t="n">
-        <v>839.3506518350143</v>
+        <v>1755.358964097049</v>
       </c>
       <c r="Y20" t="n">
-        <v>839.3506518350143</v>
+        <v>1365.219632121238</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.4984913626558</v>
+        <v>821.1210955714048</v>
       </c>
       <c r="C21" t="n">
-        <v>338.0454620815289</v>
+        <v>646.6680662902778</v>
       </c>
       <c r="D21" t="n">
-        <v>189.1110524202776</v>
+        <v>497.7336566290265</v>
       </c>
       <c r="E21" t="n">
-        <v>189.1110524202776</v>
+        <v>338.496201623571</v>
       </c>
       <c r="F21" t="n">
-        <v>42.57649444716259</v>
+        <v>191.961643650456</v>
       </c>
       <c r="G21" t="n">
-        <v>42.57649444716259</v>
+        <v>191.961643650456</v>
       </c>
       <c r="H21" t="n">
-        <v>42.57649444716259</v>
+        <v>88.65219325545981</v>
       </c>
       <c r="I21" t="n">
         <v>42.57649444716259</v>
@@ -5832,22 +5832,22 @@
         <v>42.57649444716259</v>
       </c>
       <c r="K21" t="n">
-        <v>70.96229731863099</v>
+        <v>332.7828819610838</v>
       </c>
       <c r="L21" t="n">
-        <v>522.5849953105488</v>
+        <v>784.4055799530016</v>
       </c>
       <c r="M21" t="n">
-        <v>1049.469114094186</v>
+        <v>902.3591753708814</v>
       </c>
       <c r="N21" t="n">
-        <v>1574.871748489353</v>
+        <v>1059.885327799087</v>
       </c>
       <c r="O21" t="n">
-        <v>2066.517151138657</v>
+        <v>1551.530730448391</v>
       </c>
       <c r="P21" t="n">
-        <v>2128.824722358129</v>
+        <v>1929.116442621401</v>
       </c>
       <c r="Q21" t="n">
         <v>2128.824722358129</v>
@@ -5856,25 +5856,25 @@
         <v>2092.325903017619</v>
       </c>
       <c r="S21" t="n">
-        <v>1938.255864013743</v>
+        <v>2092.325903017619</v>
       </c>
       <c r="T21" t="n">
-        <v>1813.870184110843</v>
+        <v>1894.337696521904</v>
       </c>
       <c r="U21" t="n">
-        <v>1585.715092313155</v>
+        <v>1894.337696521904</v>
       </c>
       <c r="V21" t="n">
-        <v>1350.562984081412</v>
+        <v>1659.185588290161</v>
       </c>
       <c r="W21" t="n">
-        <v>1096.325627353211</v>
+        <v>1404.94823156196</v>
       </c>
       <c r="X21" t="n">
-        <v>888.4741271476778</v>
+        <v>1197.096731356427</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.7138283827239</v>
+        <v>989.3364325914729</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1302.735187755354</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="C22" t="n">
-        <v>1302.735187755354</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="D22" t="n">
-        <v>1302.735187755354</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="E22" t="n">
-        <v>1302.735187755354</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="F22" t="n">
-        <v>1302.735187755354</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="G22" t="n">
-        <v>1302.735187755354</v>
+        <v>305.3469355751216</v>
       </c>
       <c r="H22" t="n">
-        <v>1302.735187755354</v>
+        <v>173.3363366041124</v>
       </c>
       <c r="I22" t="n">
-        <v>1302.735187755354</v>
+        <v>42.57649444716259</v>
       </c>
       <c r="J22" t="n">
-        <v>1302.735187755354</v>
+        <v>42.57649444716259</v>
       </c>
       <c r="K22" t="n">
-        <v>1380.124551877318</v>
+        <v>119.9658585691269</v>
       </c>
       <c r="L22" t="n">
-        <v>1534.682728330875</v>
+        <v>274.524035022684</v>
       </c>
       <c r="M22" t="n">
-        <v>1708.031777840248</v>
+        <v>447.8730845320573</v>
       </c>
       <c r="N22" t="n">
-        <v>1882.693590828319</v>
+        <v>622.5348975201275</v>
       </c>
       <c r="O22" t="n">
-        <v>2028.005749441938</v>
+        <v>767.8470561337467</v>
       </c>
       <c r="P22" t="n">
-        <v>2128.824722358129</v>
+        <v>868.6660290499383</v>
       </c>
       <c r="Q22" t="n">
-        <v>2128.824722358129</v>
+        <v>868.6660290499383</v>
       </c>
       <c r="R22" t="n">
-        <v>2128.824722358129</v>
+        <v>728.8460373552866</v>
       </c>
       <c r="S22" t="n">
-        <v>2128.824722358129</v>
+        <v>728.8460373552866</v>
       </c>
       <c r="T22" t="n">
-        <v>2128.824722358129</v>
+        <v>728.8460373552866</v>
       </c>
       <c r="U22" t="n">
-        <v>2128.824722358129</v>
+        <v>728.8460373552866</v>
       </c>
       <c r="V22" t="n">
-        <v>1874.140234152242</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="W22" t="n">
-        <v>1584.723064115282</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="X22" t="n">
-        <v>1356.733513217264</v>
+        <v>474.1615491493998</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.735187755354</v>
+        <v>474.1615491493998</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>549.1732245842672</v>
+        <v>196.5194337146731</v>
       </c>
       <c r="C23" t="n">
-        <v>549.1732245842672</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="D23" t="n">
-        <v>190.9075259775168</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="E23" t="n">
-        <v>190.9075259775168</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="F23" t="n">
-        <v>190.9075259775168</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="G23" t="n">
-        <v>190.9075259775168</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9075259775168</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="I23" t="n">
         <v>53.35763935407468</v>
       </c>
       <c r="J23" t="n">
-        <v>88.80958734267529</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="K23" t="n">
-        <v>434.5303935170801</v>
+        <v>399.0784455284796</v>
       </c>
       <c r="L23" t="n">
-        <v>915.7042518435172</v>
+        <v>880.2523038549166</v>
       </c>
       <c r="M23" t="n">
-        <v>1467.709426981505</v>
+        <v>1432.257478992905</v>
       </c>
       <c r="N23" t="n">
-        <v>2014.014625411056</v>
+        <v>1978.562677422456</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.695315615738</v>
+        <v>2449.235547077255</v>
       </c>
       <c r="P23" t="n">
-        <v>2471.729337556878</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="Q23" t="n">
         <v>2667.881967703734</v>
       </c>
       <c r="R23" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="S23" t="n">
-        <v>2472.016609856843</v>
+        <v>2501.112116015056</v>
       </c>
       <c r="T23" t="n">
-        <v>2255.18915847685</v>
+        <v>2284.284664635064</v>
       </c>
       <c r="U23" t="n">
-        <v>2001.460400471158</v>
+        <v>2030.555906629371</v>
       </c>
       <c r="V23" t="n">
-        <v>1670.397513127587</v>
+        <v>1699.493019285801</v>
       </c>
       <c r="W23" t="n">
-        <v>1325.912396624201</v>
+        <v>1346.724364015686</v>
       </c>
       <c r="X23" t="n">
-        <v>1325.912396624201</v>
+        <v>973.2586057546066</v>
       </c>
       <c r="Y23" t="n">
-        <v>935.773064648389</v>
+        <v>583.1192737787949</v>
       </c>
     </row>
     <row r="24">
@@ -6057,10 +6057,10 @@
         <v>348.7937581944967</v>
       </c>
       <c r="G24" t="n">
-        <v>211.1045350591342</v>
+        <v>211.1045350591344</v>
       </c>
       <c r="H24" t="n">
-        <v>107.795084664138</v>
+        <v>107.7950846641382</v>
       </c>
       <c r="I24" t="n">
         <v>53.35763935407468</v>
@@ -6069,19 +6069,19 @@
         <v>53.35763935407468</v>
       </c>
       <c r="K24" t="n">
-        <v>157.9934747365434</v>
+        <v>343.5640268679959</v>
       </c>
       <c r="L24" t="n">
-        <v>609.6161727284613</v>
+        <v>795.1867248599137</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.617781258841</v>
+        <v>1374.188333390293</v>
       </c>
       <c r="N24" t="n">
-        <v>1798.65085288142</v>
+        <v>1984.221405012873</v>
       </c>
       <c r="O24" t="n">
-        <v>2290.296255530724</v>
+        <v>2475.866807662176</v>
       </c>
       <c r="P24" t="n">
         <v>2667.881967703734</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2476.922556529574</v>
+        <v>651.4576230588331</v>
       </c>
       <c r="C25" t="n">
-        <v>2476.922556529574</v>
+        <v>651.4576230588331</v>
       </c>
       <c r="D25" t="n">
-        <v>2476.922556529574</v>
+        <v>651.4576230588331</v>
       </c>
       <c r="E25" t="n">
-        <v>2476.922556529574</v>
+        <v>503.5445294764399</v>
       </c>
       <c r="F25" t="n">
-        <v>2330.032609031664</v>
+        <v>503.5445294764399</v>
       </c>
       <c r="G25" t="n">
-        <v>2161.217995457386</v>
+        <v>334.7299159021618</v>
       </c>
       <c r="H25" t="n">
-        <v>2005.116100892342</v>
+        <v>178.6280213371179</v>
       </c>
       <c r="I25" t="n">
-        <v>1874.356258735392</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="J25" t="n">
-        <v>1841.792433100959</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="K25" t="n">
-        <v>1919.181797222923</v>
+        <v>130.747003476039</v>
       </c>
       <c r="L25" t="n">
-        <v>2073.73997367648</v>
+        <v>285.3051799295961</v>
       </c>
       <c r="M25" t="n">
-        <v>2247.089023185853</v>
+        <v>458.6542294389694</v>
       </c>
       <c r="N25" t="n">
-        <v>2421.750836173924</v>
+        <v>633.3160424270396</v>
       </c>
       <c r="O25" t="n">
-        <v>2567.062994787543</v>
+        <v>778.6282010406588</v>
       </c>
       <c r="P25" t="n">
-        <v>2667.881967703734</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="Q25" t="n">
-        <v>2653.97190835321</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="R25" t="n">
-        <v>2514.151916658559</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="S25" t="n">
-        <v>2476.922556529574</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="T25" t="n">
-        <v>2476.922556529574</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="U25" t="n">
-        <v>2476.922556529574</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="V25" t="n">
-        <v>2476.922556529574</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="W25" t="n">
-        <v>2476.922556529574</v>
+        <v>879.4471739568504</v>
       </c>
       <c r="X25" t="n">
-        <v>2476.922556529574</v>
+        <v>651.4576230588331</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.922556529574</v>
+        <v>651.4576230588331</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>470.9086055031879</v>
+        <v>808.1084088927307</v>
       </c>
       <c r="C26" t="n">
-        <v>470.9086055031879</v>
+        <v>439.1458919523189</v>
       </c>
       <c r="D26" t="n">
-        <v>470.9086055031879</v>
+        <v>439.1458919523189</v>
       </c>
       <c r="E26" t="n">
-        <v>470.9086055031879</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="F26" t="n">
-        <v>470.9086055031879</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="G26" t="n">
         <v>53.35763935407468</v>
@@ -6242,34 +6242,34 @@
         <v>2449.235547077255</v>
       </c>
       <c r="P26" t="n">
-        <v>2667.881967703734</v>
+        <v>2494.688847928628</v>
       </c>
       <c r="Q26" t="n">
         <v>2667.881967703734</v>
       </c>
       <c r="R26" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="S26" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="T26" t="n">
-        <v>2421.959010165528</v>
+        <v>2451.054516323741</v>
       </c>
       <c r="U26" t="n">
-        <v>2304.945078417886</v>
+        <v>2451.054516323741</v>
       </c>
       <c r="V26" t="n">
-        <v>1973.882191074315</v>
+        <v>2311.081994463858</v>
       </c>
       <c r="W26" t="n">
-        <v>1621.113535804201</v>
+        <v>1958.313339193744</v>
       </c>
       <c r="X26" t="n">
-        <v>1247.647777543121</v>
+        <v>1584.847580932664</v>
       </c>
       <c r="Y26" t="n">
-        <v>857.5084455673096</v>
+        <v>1194.708248956852</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>53.35763935407468</v>
       </c>
       <c r="J27" t="n">
-        <v>53.35763935407468</v>
+        <v>142.6277580860122</v>
       </c>
       <c r="K27" t="n">
-        <v>157.9934747365434</v>
+        <v>432.8341455999334</v>
       </c>
       <c r="L27" t="n">
-        <v>609.6161727284613</v>
+        <v>884.4568435918512</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.617781258841</v>
+        <v>1463.458452122231</v>
       </c>
       <c r="N27" t="n">
-        <v>1798.65085288142</v>
+        <v>1598.942573144692</v>
       </c>
       <c r="O27" t="n">
-        <v>2290.296255530724</v>
+        <v>2090.587975793996</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.881967703734</v>
+        <v>2468.173687967006</v>
       </c>
       <c r="Q27" t="n">
         <v>2667.881967703734</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2455.648296521505</v>
+        <v>1841.792433100959</v>
       </c>
       <c r="C28" t="n">
-        <v>2286.712113593598</v>
+        <v>1841.792433100959</v>
       </c>
       <c r="D28" t="n">
-        <v>2136.595474181262</v>
+        <v>1841.792433100959</v>
       </c>
       <c r="E28" t="n">
-        <v>1988.682380598869</v>
+        <v>1841.792433100959</v>
       </c>
       <c r="F28" t="n">
         <v>1841.792433100959</v>
@@ -6409,25 +6409,25 @@
         <v>2667.881967703734</v>
       </c>
       <c r="S28" t="n">
-        <v>2667.881967703734</v>
+        <v>2646.890047512955</v>
       </c>
       <c r="T28" t="n">
-        <v>2667.881967703734</v>
+        <v>2420.373112391312</v>
       </c>
       <c r="U28" t="n">
-        <v>2667.881967703734</v>
+        <v>2131.209603137919</v>
       </c>
       <c r="V28" t="n">
-        <v>2667.881967703734</v>
+        <v>2131.209603137919</v>
       </c>
       <c r="W28" t="n">
-        <v>2667.881967703734</v>
+        <v>1841.792433100959</v>
       </c>
       <c r="X28" t="n">
-        <v>2667.881967703734</v>
+        <v>1841.792433100959</v>
       </c>
       <c r="Y28" t="n">
-        <v>2637.296761351744</v>
+        <v>1841.792433100959</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1932.089428155865</v>
+        <v>780.5858549012369</v>
       </c>
       <c r="C29" t="n">
-        <v>1563.126911215454</v>
+        <v>411.6233379608252</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.861212608703</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.861212608703</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.8753078190957</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="G29" t="n">
-        <v>376.3243416699826</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="H29" t="n">
         <v>53.35763935407468</v>
@@ -6485,28 +6485,28 @@
         <v>2667.881967703734</v>
       </c>
       <c r="R29" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="S29" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="T29" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="U29" t="n">
-        <v>2385.057703539829</v>
+        <v>2614.622327815935</v>
       </c>
       <c r="V29" t="n">
-        <v>2284.85808342598</v>
+        <v>2283.559440472364</v>
       </c>
       <c r="W29" t="n">
-        <v>1932.089428155865</v>
+        <v>1930.79078520225</v>
       </c>
       <c r="X29" t="n">
-        <v>1932.089428155865</v>
+        <v>1557.32502694117</v>
       </c>
       <c r="Y29" t="n">
-        <v>1932.089428155865</v>
+        <v>1167.185694965359</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>348.7937581944967</v>
       </c>
       <c r="G30" t="n">
-        <v>211.1045350591342</v>
+        <v>211.1045350591344</v>
       </c>
       <c r="H30" t="n">
-        <v>107.795084664138</v>
+        <v>107.7950846641382</v>
       </c>
       <c r="I30" t="n">
         <v>53.35763935407468</v>
       </c>
       <c r="J30" t="n">
-        <v>53.35763935407468</v>
+        <v>142.6277580860122</v>
       </c>
       <c r="K30" t="n">
-        <v>343.5640268679959</v>
+        <v>432.8341455999334</v>
       </c>
       <c r="L30" t="n">
-        <v>795.1867248599137</v>
+        <v>884.4568435918512</v>
       </c>
       <c r="M30" t="n">
-        <v>1374.188333390293</v>
+        <v>1463.458452122231</v>
       </c>
       <c r="N30" t="n">
-        <v>1984.221405012873</v>
+        <v>1598.942573144692</v>
       </c>
       <c r="O30" t="n">
-        <v>2475.866807662176</v>
+        <v>2090.587975793996</v>
       </c>
       <c r="P30" t="n">
-        <v>2667.881967703734</v>
+        <v>2468.173687967006</v>
       </c>
       <c r="Q30" t="n">
         <v>2667.881967703734</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.3919881916328</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="C31" t="n">
-        <v>180.3919881916328</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="D31" t="n">
-        <v>180.3919881916328</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="E31" t="n">
-        <v>180.3919881916328</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="F31" t="n">
-        <v>180.3919881916328</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="G31" t="n">
-        <v>53.35763935407468</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="H31" t="n">
-        <v>53.35763935407468</v>
+        <v>216.681307145458</v>
       </c>
       <c r="I31" t="n">
-        <v>53.35763935407468</v>
+        <v>85.92146498850812</v>
       </c>
       <c r="J31" t="n">
         <v>53.35763935407468</v>
@@ -6643,28 +6643,28 @@
         <v>879.4471739568504</v>
       </c>
       <c r="R31" t="n">
-        <v>879.4471739568504</v>
+        <v>739.6271822621989</v>
       </c>
       <c r="S31" t="n">
-        <v>879.4471739568504</v>
+        <v>528.5660579869573</v>
       </c>
       <c r="T31" t="n">
-        <v>879.4471739568504</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="U31" t="n">
-        <v>879.4471739568504</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="V31" t="n">
-        <v>879.4471739568504</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="W31" t="n">
-        <v>590.0300039198899</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="X31" t="n">
-        <v>362.0404530218725</v>
+        <v>302.0491228653138</v>
       </c>
       <c r="Y31" t="n">
-        <v>362.0404530218725</v>
+        <v>302.0491228653138</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.42392755646</v>
+        <v>2197.325758318049</v>
       </c>
       <c r="C32" t="n">
-        <v>167.42392755646</v>
+        <v>1828.363241377637</v>
       </c>
       <c r="D32" t="n">
-        <v>167.42392755646</v>
+        <v>1470.097542770887</v>
       </c>
       <c r="E32" t="n">
-        <v>167.42392755646</v>
+        <v>1084.309290172642</v>
       </c>
       <c r="F32" t="n">
-        <v>167.42392755646</v>
+        <v>673.323385383035</v>
       </c>
       <c r="G32" t="n">
-        <v>167.42392755646</v>
+        <v>255.7724192339218</v>
       </c>
       <c r="H32" t="n">
-        <v>167.42392755646</v>
+        <v>53.35763935407468</v>
       </c>
       <c r="I32" t="n">
         <v>53.35763935407468</v>
@@ -6704,16 +6704,16 @@
         <v>399.0784455284796</v>
       </c>
       <c r="L32" t="n">
-        <v>880.2523038549166</v>
+        <v>734.8647025402551</v>
       </c>
       <c r="M32" t="n">
-        <v>1432.257478992905</v>
+        <v>1286.869877678243</v>
       </c>
       <c r="N32" t="n">
-        <v>1978.562677422456</v>
+        <v>1833.175076107794</v>
       </c>
       <c r="O32" t="n">
-        <v>2449.235547077255</v>
+        <v>2303.847945762594</v>
       </c>
       <c r="P32" t="n">
         <v>2667.881967703734</v>
@@ -6722,28 +6722,28 @@
         <v>2667.881967703734</v>
       </c>
       <c r="R32" t="n">
-        <v>2638.786461545521</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="S32" t="n">
-        <v>2472.016609856843</v>
+        <v>2667.881967703734</v>
       </c>
       <c r="T32" t="n">
-        <v>2255.18915847685</v>
+        <v>2451.054516323741</v>
       </c>
       <c r="U32" t="n">
-        <v>2001.460400471158</v>
+        <v>2197.325758318049</v>
       </c>
       <c r="V32" t="n">
-        <v>1670.397513127587</v>
+        <v>2197.325758318049</v>
       </c>
       <c r="W32" t="n">
-        <v>1317.628857857473</v>
+        <v>2197.325758318049</v>
       </c>
       <c r="X32" t="n">
-        <v>944.1630995963935</v>
+        <v>2197.325758318049</v>
       </c>
       <c r="Y32" t="n">
-        <v>554.0237676205818</v>
+        <v>2197.325758318049</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.9532101154455</v>
+        <v>977.9532101154454</v>
       </c>
       <c r="C33" t="n">
-        <v>803.5001808343185</v>
+        <v>803.5001808343184</v>
       </c>
       <c r="D33" t="n">
-        <v>654.5657711730672</v>
+        <v>654.5657711730671</v>
       </c>
       <c r="E33" t="n">
-        <v>495.3283161676117</v>
+        <v>495.3283161676115</v>
       </c>
       <c r="F33" t="n">
-        <v>348.7937581944967</v>
+        <v>348.7937581944965</v>
       </c>
       <c r="G33" t="n">
-        <v>211.1045350591344</v>
+        <v>211.1045350591342</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7950846641382</v>
+        <v>107.795084664138</v>
       </c>
       <c r="I33" t="n">
         <v>53.35763935407468</v>
@@ -6783,19 +6783,19 @@
         <v>81.74344222554308</v>
       </c>
       <c r="L33" t="n">
-        <v>533.366140217461</v>
+        <v>409.9078929917333</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.367748747841</v>
+        <v>988.909501522113</v>
       </c>
       <c r="N33" t="n">
-        <v>1722.40082037042</v>
+        <v>1598.942573144692</v>
       </c>
       <c r="O33" t="n">
-        <v>2214.046223019724</v>
+        <v>2090.587975793996</v>
       </c>
       <c r="P33" t="n">
-        <v>2591.631935192734</v>
+        <v>2468.173687967006</v>
       </c>
       <c r="Q33" t="n">
         <v>2667.881967703734</v>
@@ -6822,7 +6822,7 @@
         <v>1353.928845900467</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.168547135514</v>
+        <v>1146.168547135513</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>209.4595339191186</v>
+        <v>590.0300039198899</v>
       </c>
       <c r="C34" t="n">
-        <v>209.4595339191186</v>
+        <v>590.0300039198899</v>
       </c>
       <c r="D34" t="n">
-        <v>209.4595339191186</v>
+        <v>590.0300039198899</v>
       </c>
       <c r="E34" t="n">
-        <v>209.4595339191186</v>
+        <v>442.1169103374967</v>
       </c>
       <c r="F34" t="n">
-        <v>209.4595339191186</v>
+        <v>442.1169103374967</v>
       </c>
       <c r="G34" t="n">
-        <v>209.4595339191186</v>
+        <v>372.7832017105019</v>
       </c>
       <c r="H34" t="n">
-        <v>53.35763935407468</v>
+        <v>216.681307145458</v>
       </c>
       <c r="I34" t="n">
-        <v>53.35763935407468</v>
+        <v>85.92146498850812</v>
       </c>
       <c r="J34" t="n">
         <v>53.35763935407468</v>
@@ -6895,13 +6895,13 @@
         <v>879.4471739568504</v>
       </c>
       <c r="W34" t="n">
-        <v>839.8901287909057</v>
+        <v>590.0300039198899</v>
       </c>
       <c r="X34" t="n">
-        <v>611.9005778928884</v>
+        <v>590.0300039198899</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.1079987493583</v>
+        <v>590.0300039198899</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1454.049810481416</v>
+        <v>961.8680442457312</v>
       </c>
       <c r="C35" t="n">
-        <v>1454.049810481416</v>
+        <v>592.9055273053195</v>
       </c>
       <c r="D35" t="n">
-        <v>1454.049810481416</v>
+        <v>592.9055273053195</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.913000808908</v>
+        <v>592.9055273053195</v>
       </c>
       <c r="F35" t="n">
-        <v>782.9270960193008</v>
+        <v>592.9055273053195</v>
       </c>
       <c r="G35" t="n">
-        <v>365.3761298701877</v>
+        <v>502.9260164936298</v>
       </c>
       <c r="H35" t="n">
-        <v>42.40942755427984</v>
+        <v>179.959314177722</v>
       </c>
       <c r="I35" t="n">
         <v>42.40942755427984</v>
@@ -6938,19 +6938,19 @@
         <v>42.40942755427984</v>
       </c>
       <c r="K35" t="n">
-        <v>67.22627528323159</v>
+        <v>388.1302337286847</v>
       </c>
       <c r="L35" t="n">
-        <v>548.4001336096687</v>
+        <v>869.3040920551218</v>
       </c>
       <c r="M35" t="n">
-        <v>1073.216799593882</v>
+        <v>1394.120758039335</v>
       </c>
       <c r="N35" t="n">
-        <v>1598.033465578095</v>
+        <v>1507.452501301021</v>
       </c>
       <c r="O35" t="n">
-        <v>2068.706335232894</v>
+        <v>1756.437355772851</v>
       </c>
       <c r="P35" t="n">
         <v>2120.471377713992</v>
@@ -6962,25 +6962,25 @@
         <v>2091.375871555779</v>
       </c>
       <c r="S35" t="n">
-        <v>1924.606019867101</v>
+        <v>2091.375871555779</v>
       </c>
       <c r="T35" t="n">
-        <v>1707.778568487108</v>
+        <v>2091.375871555779</v>
       </c>
       <c r="U35" t="n">
-        <v>1454.049810481416</v>
+        <v>2091.375871555779</v>
       </c>
       <c r="V35" t="n">
-        <v>1454.049810481416</v>
+        <v>2091.375871555779</v>
       </c>
       <c r="W35" t="n">
-        <v>1454.049810481416</v>
+        <v>1738.607216285665</v>
       </c>
       <c r="X35" t="n">
-        <v>1454.049810481416</v>
+        <v>1738.607216285665</v>
       </c>
       <c r="Y35" t="n">
-        <v>1454.049810481416</v>
+        <v>1348.467884309853</v>
       </c>
     </row>
     <row r="36">
@@ -6999,13 +6999,13 @@
         <v>107.155181183325</v>
       </c>
       <c r="E36" t="n">
-        <v>107.155181183325</v>
+        <v>96.84687286434311</v>
       </c>
       <c r="F36" t="n">
-        <v>107.155181183325</v>
+        <v>96.84687286434311</v>
       </c>
       <c r="G36" t="n">
-        <v>107.155181183325</v>
+        <v>96.84687286434311</v>
       </c>
       <c r="H36" t="n">
         <v>96.84687286434311</v>
@@ -7017,13 +7017,13 @@
         <v>138.1205450245043</v>
       </c>
       <c r="K36" t="n">
-        <v>428.3269325384255</v>
+        <v>166.5063478959727</v>
       </c>
       <c r="L36" t="n">
-        <v>512.8176886799188</v>
+        <v>250.997104037466</v>
       </c>
       <c r="M36" t="n">
-        <v>726.423596907465</v>
+        <v>775.8137700216789</v>
       </c>
       <c r="N36" t="n">
         <v>1251.240262891678</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.0206678448533</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="C37" t="n">
-        <v>368.0206678448533</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="D37" t="n">
-        <v>368.0206678448533</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="E37" t="n">
-        <v>221.8632006866236</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="F37" t="n">
-        <v>74.97325318871327</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="G37" t="n">
-        <v>74.97325318871327</v>
+        <v>1613.807405467643</v>
       </c>
       <c r="H37" t="n">
-        <v>74.97325318871327</v>
+        <v>1457.705510902599</v>
       </c>
       <c r="I37" t="n">
-        <v>74.97325318871327</v>
+        <v>1326.94566874565</v>
       </c>
       <c r="J37" t="n">
-        <v>42.40942755427984</v>
+        <v>1294.381843111216</v>
       </c>
       <c r="K37" t="n">
-        <v>119.7987916762441</v>
+        <v>1371.77120723318</v>
       </c>
       <c r="L37" t="n">
-        <v>274.3569681298012</v>
+        <v>1526.329383686737</v>
       </c>
       <c r="M37" t="n">
-        <v>447.7060176391745</v>
+        <v>1699.678433196111</v>
       </c>
       <c r="N37" t="n">
-        <v>622.3678306272448</v>
+        <v>1874.340246184181</v>
       </c>
       <c r="O37" t="n">
-        <v>767.679989240864</v>
+        <v>2019.6524047978</v>
       </c>
       <c r="P37" t="n">
-        <v>868.4989621570555</v>
+        <v>2120.471377713992</v>
       </c>
       <c r="Q37" t="n">
-        <v>868.4989621570555</v>
+        <v>2106.561318363468</v>
       </c>
       <c r="R37" t="n">
-        <v>868.4989621570555</v>
+        <v>1966.741326668817</v>
       </c>
       <c r="S37" t="n">
-        <v>657.4378378818139</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="T37" t="n">
-        <v>657.4378378818139</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="U37" t="n">
-        <v>657.4378378818139</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="V37" t="n">
-        <v>657.4378378818139</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="W37" t="n">
-        <v>368.0206678448533</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="X37" t="n">
-        <v>368.0206678448533</v>
+        <v>1782.622019041921</v>
       </c>
       <c r="Y37" t="n">
-        <v>368.0206678448533</v>
+        <v>1782.622019041921</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1747.005619452912</v>
+        <v>769.6376431014421</v>
       </c>
       <c r="C38" t="n">
-        <v>1747.005619452912</v>
+        <v>400.6751261610303</v>
       </c>
       <c r="D38" t="n">
-        <v>1717.251140030595</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="E38" t="n">
-        <v>1331.46288743235</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="F38" t="n">
-        <v>920.476982642743</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="G38" t="n">
-        <v>502.9260164936298</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="H38" t="n">
-        <v>179.959314177722</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="I38" t="n">
         <v>42.40942755427984</v>
       </c>
       <c r="J38" t="n">
-        <v>192.5194435210133</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="K38" t="n">
-        <v>538.2402496954182</v>
+        <v>67.22627528323159</v>
       </c>
       <c r="L38" t="n">
-        <v>1019.414108021855</v>
+        <v>416.9707034528881</v>
       </c>
       <c r="M38" t="n">
-        <v>1491.013463946133</v>
+        <v>941.787369437101</v>
       </c>
       <c r="N38" t="n">
-        <v>1604.34520720782</v>
+        <v>1466.604035421314</v>
       </c>
       <c r="O38" t="n">
-        <v>2075.018076862619</v>
+        <v>1560.284725625996</v>
       </c>
       <c r="P38" t="n">
-        <v>2120.471377713992</v>
+        <v>1924.318747567136</v>
       </c>
       <c r="Q38" t="n">
         <v>2120.471377713992</v>
       </c>
       <c r="R38" t="n">
-        <v>2120.471377713992</v>
+        <v>2091.375871555779</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.471377713992</v>
+        <v>1924.606019867101</v>
       </c>
       <c r="T38" t="n">
-        <v>2120.471377713992</v>
+        <v>1840.069025779248</v>
       </c>
       <c r="U38" t="n">
-        <v>2120.471377713992</v>
+        <v>1840.069025779248</v>
       </c>
       <c r="V38" t="n">
-        <v>2120.471377713992</v>
+        <v>1509.006138435678</v>
       </c>
       <c r="W38" t="n">
-        <v>2120.471377713992</v>
+        <v>1156.237483165564</v>
       </c>
       <c r="X38" t="n">
-        <v>1747.005619452912</v>
+        <v>1156.237483165564</v>
       </c>
       <c r="Y38" t="n">
-        <v>1747.005619452912</v>
+        <v>1156.237483165564</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>967.0049983156504</v>
+        <v>671.5688794752286</v>
       </c>
       <c r="C39" t="n">
-        <v>792.5519690345234</v>
+        <v>497.1158501941017</v>
       </c>
       <c r="D39" t="n">
-        <v>643.6175593732721</v>
+        <v>348.1814405328504</v>
       </c>
       <c r="E39" t="n">
-        <v>484.3801043678167</v>
+        <v>188.9439855273949</v>
       </c>
       <c r="F39" t="n">
-        <v>337.8455463947017</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="G39" t="n">
-        <v>200.1563232593393</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="H39" t="n">
-        <v>96.84687286434311</v>
+        <v>42.40942755427984</v>
       </c>
       <c r="I39" t="n">
         <v>42.40942755427984</v>
@@ -7254,49 +7254,49 @@
         <v>42.40942755427984</v>
       </c>
       <c r="K39" t="n">
-        <v>70.79523042574823</v>
+        <v>332.615815068201</v>
       </c>
       <c r="L39" t="n">
-        <v>522.4179284176661</v>
+        <v>784.2385130601189</v>
       </c>
       <c r="M39" t="n">
-        <v>916.0478621324888</v>
+        <v>1115.756141869217</v>
       </c>
       <c r="N39" t="n">
-        <v>1051.53198315495</v>
+        <v>1251.240262891678</v>
       </c>
       <c r="O39" t="n">
-        <v>1543.177385804254</v>
+        <v>1742.885665540982</v>
       </c>
       <c r="P39" t="n">
-        <v>1920.763097977264</v>
+        <v>2120.471377713992</v>
       </c>
       <c r="Q39" t="n">
         <v>2120.471377713992</v>
       </c>
       <c r="R39" t="n">
-        <v>2120.471377713992</v>
+        <v>2096.843725925318</v>
       </c>
       <c r="S39" t="n">
-        <v>2120.471377713992</v>
+        <v>1942.773686921443</v>
       </c>
       <c r="T39" t="n">
-        <v>1922.483171218277</v>
+        <v>1744.785480425728</v>
       </c>
       <c r="U39" t="n">
-        <v>1694.328079420589</v>
+        <v>1744.785480425728</v>
       </c>
       <c r="V39" t="n">
-        <v>1694.328079420589</v>
+        <v>1509.633372193985</v>
       </c>
       <c r="W39" t="n">
-        <v>1550.832134306205</v>
+        <v>1255.396015465783</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.980634100672</v>
+        <v>1047.544515260251</v>
       </c>
       <c r="Y39" t="n">
-        <v>1135.220335335718</v>
+        <v>839.7842164952967</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.40942755427984</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="C40" t="n">
-        <v>42.40942755427984</v>
+        <v>1740.474070510843</v>
       </c>
       <c r="D40" t="n">
-        <v>42.40942755427984</v>
+        <v>1590.357431098508</v>
       </c>
       <c r="E40" t="n">
-        <v>42.40942755427984</v>
+        <v>1590.357431098508</v>
       </c>
       <c r="F40" t="n">
-        <v>42.40942755427984</v>
+        <v>1443.467483600597</v>
       </c>
       <c r="G40" t="n">
-        <v>42.40942755427984</v>
+        <v>1294.381843111216</v>
       </c>
       <c r="H40" t="n">
-        <v>42.40942755427984</v>
+        <v>1294.381843111216</v>
       </c>
       <c r="I40" t="n">
-        <v>42.40942755427984</v>
+        <v>1294.381843111216</v>
       </c>
       <c r="J40" t="n">
-        <v>42.40942755427984</v>
+        <v>1294.381843111216</v>
       </c>
       <c r="K40" t="n">
-        <v>119.7987916762441</v>
+        <v>1371.77120723318</v>
       </c>
       <c r="L40" t="n">
-        <v>274.3569681298012</v>
+        <v>1526.329383686737</v>
       </c>
       <c r="M40" t="n">
-        <v>447.7060176391745</v>
+        <v>1699.678433196111</v>
       </c>
       <c r="N40" t="n">
-        <v>622.3678306272448</v>
+        <v>1874.340246184181</v>
       </c>
       <c r="O40" t="n">
-        <v>767.679989240864</v>
+        <v>2019.6524047978</v>
       </c>
       <c r="P40" t="n">
-        <v>868.4989621570555</v>
+        <v>2120.471377713992</v>
       </c>
       <c r="Q40" t="n">
-        <v>868.4989621570555</v>
+        <v>2120.471377713992</v>
       </c>
       <c r="R40" t="n">
-        <v>868.4989621570555</v>
+        <v>2120.471377713992</v>
       </c>
       <c r="S40" t="n">
-        <v>868.4989621570555</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="T40" t="n">
-        <v>814.2469759115768</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="U40" t="n">
-        <v>525.0834666581841</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="V40" t="n">
-        <v>270.3989784522972</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="W40" t="n">
-        <v>270.3989784522972</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="X40" t="n">
-        <v>42.40942755427984</v>
+        <v>1909.41025343875</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.40942755427984</v>
+        <v>1909.41025343875</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.49866926014048</v>
+        <v>1156.2395289639</v>
       </c>
       <c r="C41" t="n">
-        <v>36.49866926014048</v>
+        <v>1156.2395289639</v>
       </c>
       <c r="D41" t="n">
-        <v>36.49866926014048</v>
+        <v>1156.2395289639</v>
       </c>
       <c r="E41" t="n">
-        <v>36.49866926014048</v>
+        <v>770.451276365656</v>
       </c>
       <c r="F41" t="n">
-        <v>36.49866926014048</v>
+        <v>359.4653715760484</v>
       </c>
       <c r="G41" t="n">
-        <v>36.49866926014048</v>
+        <v>359.4653715760484</v>
       </c>
       <c r="H41" t="n">
         <v>36.49866926014048</v>
@@ -7412,22 +7412,22 @@
         <v>36.49866926014048</v>
       </c>
       <c r="K41" t="n">
-        <v>382.2194754345454</v>
+        <v>61.31551698909223</v>
       </c>
       <c r="L41" t="n">
-        <v>788.9098887298749</v>
+        <v>512.9865490833307</v>
       </c>
       <c r="M41" t="n">
-        <v>895.8966657099588</v>
+        <v>964.6575811775692</v>
       </c>
       <c r="N41" t="n">
-        <v>1009.228408971645</v>
+        <v>1416.328613271808</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.899441065884</v>
+        <v>1583.327532008796</v>
       </c>
       <c r="P41" t="n">
-        <v>1824.933463007024</v>
+        <v>1628.780832860168</v>
       </c>
       <c r="Q41" t="n">
         <v>1824.933463007024</v>
@@ -7436,25 +7436,25 @@
         <v>1824.933463007024</v>
       </c>
       <c r="S41" t="n">
-        <v>1824.933463007024</v>
+        <v>1704.129867687464</v>
       </c>
       <c r="T41" t="n">
-        <v>1824.933463007024</v>
+        <v>1487.302416307471</v>
       </c>
       <c r="U41" t="n">
-        <v>1824.933463007024</v>
+        <v>1487.302416307471</v>
       </c>
       <c r="V41" t="n">
-        <v>1539.472254831268</v>
+        <v>1156.2395289639</v>
       </c>
       <c r="W41" t="n">
-        <v>1186.703599561154</v>
+        <v>1156.2395289639</v>
       </c>
       <c r="X41" t="n">
-        <v>813.237841300074</v>
+        <v>1156.2395289639</v>
       </c>
       <c r="Y41" t="n">
-        <v>423.0985093242623</v>
+        <v>1156.2395289639</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>961.0942400215112</v>
+        <v>715.2180427160142</v>
       </c>
       <c r="C42" t="n">
-        <v>786.6412107403842</v>
+        <v>540.7650134348872</v>
       </c>
       <c r="D42" t="n">
-        <v>637.7068010791329</v>
+        <v>391.830603773636</v>
       </c>
       <c r="E42" t="n">
-        <v>478.4693460736773</v>
+        <v>391.830603773636</v>
       </c>
       <c r="F42" t="n">
         <v>331.9347881005623</v>
@@ -7488,19 +7488,19 @@
         <v>36.49866926014048</v>
       </c>
       <c r="J42" t="n">
-        <v>36.49866926014048</v>
+        <v>132.209786730365</v>
       </c>
       <c r="K42" t="n">
-        <v>64.88447213160887</v>
+        <v>422.4161742442861</v>
       </c>
       <c r="L42" t="n">
-        <v>516.5071701235267</v>
+        <v>874.038872236204</v>
       </c>
       <c r="M42" t="n">
-        <v>660.4843179805868</v>
+        <v>1010.433643509484</v>
       </c>
       <c r="N42" t="n">
-        <v>795.9684390030479</v>
+        <v>1145.917764531945</v>
       </c>
       <c r="O42" t="n">
         <v>1247.639471097286</v>
@@ -7524,16 +7524,16 @@
         <v>1788.434643666513</v>
       </c>
       <c r="V42" t="n">
-        <v>1788.434643666513</v>
+        <v>1553.282535434771</v>
       </c>
       <c r="W42" t="n">
-        <v>1544.921376012066</v>
+        <v>1299.045178706569</v>
       </c>
       <c r="X42" t="n">
-        <v>1337.069875806533</v>
+        <v>1091.193678501036</v>
       </c>
       <c r="Y42" t="n">
-        <v>1129.309577041579</v>
+        <v>883.4333797360823</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.2617261486039</v>
+        <v>198.6484036372501</v>
       </c>
       <c r="C43" t="n">
-        <v>99.32554322069697</v>
+        <v>36.49866926014048</v>
       </c>
       <c r="D43" t="n">
-        <v>99.32554322069697</v>
+        <v>36.49866926014048</v>
       </c>
       <c r="E43" t="n">
         <v>36.49866926014048</v>
@@ -7588,31 +7588,31 @@
         <v>862.5882038629162</v>
       </c>
       <c r="Q43" t="n">
-        <v>862.5882038629162</v>
+        <v>848.6781445123925</v>
       </c>
       <c r="R43" t="n">
-        <v>722.7682121682647</v>
+        <v>708.8581528177408</v>
       </c>
       <c r="S43" t="n">
-        <v>722.7682121682647</v>
+        <v>708.8581528177408</v>
       </c>
       <c r="T43" t="n">
-        <v>496.2512770466212</v>
+        <v>708.8581528177408</v>
       </c>
       <c r="U43" t="n">
-        <v>496.2512770466212</v>
+        <v>708.8581528177408</v>
       </c>
       <c r="V43" t="n">
-        <v>496.2512770466212</v>
+        <v>708.8581528177408</v>
       </c>
       <c r="W43" t="n">
-        <v>496.2512770466212</v>
+        <v>419.4409827807802</v>
       </c>
       <c r="X43" t="n">
-        <v>268.2617261486039</v>
+        <v>419.4409827807802</v>
       </c>
       <c r="Y43" t="n">
-        <v>268.2617261486039</v>
+        <v>198.6484036372501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>539.0572453456045</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="C44" t="n">
-        <v>539.0572453456045</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="D44" t="n">
-        <v>539.0572453456045</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9316783391387</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="F44" t="n">
-        <v>266.8061113326729</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="G44" t="n">
-        <v>130.6805443262071</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="H44" t="n">
         <v>10.78114490691209</v>
@@ -7649,22 +7649,22 @@
         <v>10.78114490691209</v>
       </c>
       <c r="K44" t="n">
-        <v>35.59799263586385</v>
+        <v>111.9154781262888</v>
       </c>
       <c r="L44" t="n">
-        <v>103.287248557355</v>
+        <v>179.60473404778</v>
       </c>
       <c r="M44" t="n">
-        <v>210.2740255374391</v>
+        <v>286.591511027864</v>
       </c>
       <c r="N44" t="n">
-        <v>323.6057687991254</v>
+        <v>399.9232542895504</v>
       </c>
       <c r="O44" t="n">
-        <v>417.286459003807</v>
+        <v>493.6039444942319</v>
       </c>
       <c r="P44" t="n">
-        <v>462.7397598551796</v>
+        <v>539.0572453456045</v>
       </c>
       <c r="Q44" t="n">
         <v>539.0572453456045</v>
@@ -7676,22 +7676,22 @@
         <v>539.0572453456045</v>
       </c>
       <c r="T44" t="n">
-        <v>539.0572453456045</v>
+        <v>419.1578459263096</v>
       </c>
       <c r="U44" t="n">
-        <v>539.0572453456045</v>
+        <v>419.1578459263096</v>
       </c>
       <c r="V44" t="n">
-        <v>539.0572453456045</v>
+        <v>419.1578459263096</v>
       </c>
       <c r="W44" t="n">
-        <v>539.0572453456045</v>
+        <v>283.0322789198437</v>
       </c>
       <c r="X44" t="n">
-        <v>539.0572453456045</v>
+        <v>283.0322789198437</v>
       </c>
       <c r="Y44" t="n">
-        <v>539.0572453456045</v>
+        <v>146.9067119133779</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
       <c r="C45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
       <c r="D45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
       <c r="E45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
       <c r="F45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
       <c r="G45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
       <c r="H45" t="n">
-        <v>10.78114490691209</v>
+        <v>65.21859021697537</v>
       </c>
       <c r="I45" t="n">
         <v>10.78114490691209</v>
@@ -7749,28 +7749,28 @@
         <v>539.0572453456045</v>
       </c>
       <c r="R45" t="n">
-        <v>539.0572453456045</v>
+        <v>502.5584260050937</v>
       </c>
       <c r="S45" t="n">
-        <v>539.0572453456045</v>
+        <v>366.4328589986279</v>
       </c>
       <c r="T45" t="n">
-        <v>402.9316783391387</v>
+        <v>366.4328589986279</v>
       </c>
       <c r="U45" t="n">
-        <v>266.8061113326729</v>
+        <v>366.4328589986279</v>
       </c>
       <c r="V45" t="n">
-        <v>130.6805443262071</v>
+        <v>230.3072919921621</v>
       </c>
       <c r="W45" t="n">
-        <v>10.78114490691209</v>
+        <v>230.3072919921621</v>
       </c>
       <c r="X45" t="n">
-        <v>10.78114490691209</v>
+        <v>230.3072919921621</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.78114490691209</v>
+        <v>94.18172498569629</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="C46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="D46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="E46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="F46" t="n">
-        <v>402.9316783391387</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="G46" t="n">
-        <v>277.6665540703277</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5409870638619</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="I46" t="n">
         <v>10.78114490691209</v>
@@ -7810,16 +7810,16 @@
         <v>10.78114490691209</v>
       </c>
       <c r="L46" t="n">
-        <v>144.1978131299492</v>
+        <v>138.8072406764931</v>
       </c>
       <c r="M46" t="n">
-        <v>277.6144813529863</v>
+        <v>272.2239088995302</v>
       </c>
       <c r="N46" t="n">
-        <v>411.0311495760235</v>
+        <v>405.6405771225674</v>
       </c>
       <c r="O46" t="n">
-        <v>438.238272429413</v>
+        <v>539.0572453456045</v>
       </c>
       <c r="P46" t="n">
         <v>539.0572453456045</v>
@@ -7831,25 +7831,25 @@
         <v>539.0572453456045</v>
       </c>
       <c r="S46" t="n">
-        <v>539.0572453456045</v>
+        <v>419.1578459263096</v>
       </c>
       <c r="T46" t="n">
-        <v>539.0572453456045</v>
+        <v>283.0322789198437</v>
       </c>
       <c r="U46" t="n">
-        <v>539.0572453456045</v>
+        <v>146.9067119133779</v>
       </c>
       <c r="V46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="W46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="X46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
       <c r="Y46" t="n">
-        <v>539.0572453456045</v>
+        <v>10.78114490691209</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>17.47033641779751</v>
       </c>
       <c r="K11" t="n">
-        <v>85.35733660775733</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.18102081459577</v>
+        <v>99.53835742235313</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6.180631264475423</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.351752648245224</v>
+        <v>14.53238391272065</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,7 +8848,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>53.45023581167756</v>
+        <v>28.57269147398154</v>
       </c>
       <c r="L13" t="n">
         <v>143.2079788838818</v>
@@ -8857,13 +8857,13 @@
         <v>140.2622583974132</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>126.7148907176875</v>
       </c>
       <c r="O13" t="n">
         <v>153.1143556677431</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>33.16921693404963</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.47033641779751</v>
+        <v>102.8276730255548</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>85.35733660775736</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>14.18102081459577</v>
@@ -9006,7 +9006,7 @@
         <v>29.41313890583866</v>
       </c>
       <c r="K15" t="n">
-        <v>6.180631264475466</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>6.180631264475423</v>
       </c>
       <c r="Q15" t="n">
         <v>8.351752648245224</v>
@@ -9091,13 +9091,13 @@
         <v>143.2079788838818</v>
       </c>
       <c r="M16" t="n">
-        <v>140.2622583974132</v>
+        <v>86.96872786443819</v>
       </c>
       <c r="N16" t="n">
-        <v>83.55911696446057</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>16.26170817030756</v>
+        <v>153.1143556677431</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.47033641779751</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>185.6696032156403</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>27.41571556561726</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>164.8247010717809</v>
+        <v>28.1497712534533</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.18102081459577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>182.0645980211791</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>91.59208029753117</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>107.9879276233275</v>
       </c>
       <c r="P18" t="n">
-        <v>19.99082005400746</v>
+        <v>2.475410154327832</v>
       </c>
       <c r="Q18" t="n">
         <v>8.351752648245224</v>
@@ -9401,13 +9401,13 @@
         <v>17.47033641779751</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10.46779169912297</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>424.138729094498</v>
+        <v>424.1387290944979</v>
       </c>
       <c r="N20" t="n">
         <v>417.7296722443946</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>10.46779169912295</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>14.18102081459577</v>
@@ -9480,25 +9480,25 @@
         <v>29.41313890583866</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>413.061134712886</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>393.8570842148547</v>
+        <v>22.26467818762109</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.351752648245224</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>53.28038489113145</v>
+        <v>17.47033641779751</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>174.9425452273803</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>14.18102081459577</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,7 +9717,7 @@
         <v>29.41313890583866</v>
       </c>
       <c r="K24" t="n">
-        <v>77.02023485959631</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>131.0177664869551</v>
       </c>
       <c r="Q24" t="n">
         <v>8.351752648245224</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>174.9425452273803</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.18102081459577</v>
+        <v>189.123566041976</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41313890583866</v>
+        <v>119.5849760088059</v>
       </c>
       <c r="K27" t="n">
-        <v>77.02023485959631</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.351752648245224</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41313890583866</v>
+        <v>119.5849760088059</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>131.0177664869551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.351752648245224</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>270.8050516063478</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>174.9425452273803</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>14.18102081459577</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>246.1350450754515</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.37198750784161</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>17.47033641779751</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,13 +10595,13 @@
         <v>422.0503929334636</v>
       </c>
       <c r="N35" t="n">
-        <v>415.6413360833602</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>156.87289319914</v>
       </c>
       <c r="P35" t="n">
-        <v>6.375496595681881</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>14.18102081459577</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>96.61849778754186</v>
+        <v>410.9727985518517</v>
       </c>
       <c r="N36" t="n">
-        <v>393.2651969310624</v>
+        <v>343.3761331793312</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>17.47033641779751</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>284.9042143920861</v>
       </c>
       <c r="M38" t="n">
-        <v>368.2955342870646</v>
+        <v>422.0503929334636</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>415.6413360833602</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.18102081459577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,13 +10902,13 @@
         <v>29.41313890583866</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>278.4609477746898</v>
+        <v>215.7212458497151</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>8.351752648245224</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,25 +11060,25 @@
         <v>17.47033641779751</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>342.4254114887256</v>
+        <v>387.860379972472</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>348.1659142567216</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>341.7568574066183</v>
       </c>
       <c r="O41" t="n">
-        <v>361.6064059490473</v>
+        <v>74.05881669929929</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.18102081459577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41313890583866</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>26.28641660523249</v>
+        <v>18.62745035898968</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>353.4841672009061</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11297,7 @@
         <v>17.47033641779751</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>77.08836918224742</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.26938999684317</v>
+        <v>14.18102081459577</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11458,7 +11458,7 @@
         <v>28.57269147398154</v>
       </c>
       <c r="L46" t="n">
-        <v>141.1196427228474</v>
+        <v>135.6746200425887</v>
       </c>
       <c r="M46" t="n">
         <v>138.1739222363788</v>
@@ -11467,10 +11467,10 @@
         <v>130.1559544555394</v>
       </c>
       <c r="O46" t="n">
-        <v>43.74365044645855</v>
+        <v>151.0260195067087</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>33.16921693404963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23309,16 +23309,16 @@
         <v>28.24950567435536</v>
       </c>
       <c r="T11" t="n">
-        <v>214.6591768661928</v>
+        <v>77.80652936875731</v>
       </c>
       <c r="U11" t="n">
         <v>114.3388229281999</v>
       </c>
       <c r="V11" t="n">
-        <v>190.8996109726994</v>
+        <v>236.0169976510246</v>
       </c>
       <c r="W11" t="n">
-        <v>257.5057078983027</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.99337173412626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>55.88173119680627</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>8.216564895948352</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3123309040087</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2763558910462</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>53.89307085696264</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>114.8423356634841</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>68.92033770604195</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>68.83004827986883</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>11.76282552077683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>9.581315149133644</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>8.568400525495719</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>46.58665552279429</v>
+        <v>167.1264674385354</v>
       </c>
       <c r="H13" t="n">
-        <v>154.5408756193934</v>
+        <v>17.68822812195791</v>
       </c>
       <c r="I13" t="n">
-        <v>129.4522437353803</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.23818737808909</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.77095875701851</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>138.4217917777051</v>
+        <v>1.569144280269541</v>
       </c>
       <c r="S13" t="n">
         <v>208.9505130324892</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.7785858463484</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>245.0777225748263</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>270.0233982442759</v>
       </c>
       <c r="G14" t="n">
-        <v>413.375456487622</v>
+        <v>276.5228089901865</v>
       </c>
       <c r="H14" t="n">
-        <v>319.7370352927488</v>
+        <v>199.1972233770077</v>
       </c>
       <c r="I14" t="n">
         <v>136.1743877572077</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>28.8045510966308</v>
       </c>
       <c r="S14" t="n">
         <v>165.1021531717909</v>
       </c>
       <c r="T14" t="n">
-        <v>122.9239160470825</v>
+        <v>214.6591768661928</v>
       </c>
       <c r="U14" t="n">
         <v>251.1914704256355</v>
       </c>
       <c r="V14" t="n">
-        <v>190.8996109726994</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>232.8784531810335</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>249.3852911586181</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,19 +23574,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>35.85585149088021</v>
       </c>
       <c r="D15" t="n">
-        <v>26.36493705547076</v>
+        <v>10.59241806720323</v>
       </c>
       <c r="E15" t="n">
         <v>20.79243295796542</v>
       </c>
       <c r="F15" t="n">
-        <v>8.216564895948352</v>
+        <v>24.5294004776428</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.3123309040087</v>
       </c>
       <c r="H15" t="n">
         <v>102.2763558910462</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>49.71901972322398</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1264674385354</v>
+        <v>30.27381994109984</v>
       </c>
       <c r="H16" t="n">
-        <v>154.5408756193934</v>
+        <v>17.68822812195791</v>
       </c>
       <c r="I16" t="n">
-        <v>129.4522437353803</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.23818737808909</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>138.4217917777051</v>
       </c>
       <c r="S16" t="n">
-        <v>88.41070111674803</v>
+        <v>208.9505130324892</v>
       </c>
       <c r="T16" t="n">
-        <v>87.39911827299147</v>
+        <v>224.251765770427</v>
       </c>
       <c r="U16" t="n">
-        <v>149.4192266634232</v>
+        <v>286.2718741608587</v>
       </c>
       <c r="V16" t="n">
-        <v>115.2849958263925</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4874970952541</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>196.138919567534</v>
       </c>
       <c r="G17" t="n">
-        <v>413.375456487622</v>
+        <v>202.6383303134445</v>
       </c>
       <c r="H17" t="n">
-        <v>319.7370352927488</v>
+        <v>108.9999091185713</v>
       </c>
       <c r="I17" t="n">
-        <v>136.1743877572077</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>251.1914704256355</v>
       </c>
       <c r="V17" t="n">
-        <v>142.1349977359194</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>138.5038425432355</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>158.9939745042916</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.5008124818761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3123309040087</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>102.2763558910462</v>
@@ -23865,19 +23865,19 @@
         <v>196.0083244307577</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8735408797115</v>
+        <v>220.3171356474882</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>163.0997362666532</v>
+        <v>40.95785698674214</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.1264674385354</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>154.5408756193934</v>
@@ -23938,10 +23938,10 @@
         <v>138.4217917777051</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.4597197368091</v>
       </c>
       <c r="T19" t="n">
-        <v>224.251765770427</v>
+        <v>13.51463959624954</v>
       </c>
       <c r="U19" t="n">
         <v>286.2718741608587</v>
@@ -23950,13 +23950,13 @@
         <v>41.40051714965054</v>
       </c>
       <c r="W19" t="n">
-        <v>278.9511046426246</v>
+        <v>75.78587216241354</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.847527177917328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.375456487622</v>
       </c>
       <c r="H20" t="n">
-        <v>319.7370352927488</v>
+        <v>113.0101040505855</v>
       </c>
       <c r="I20" t="n">
         <v>136.1743877572077</v>
@@ -24023,19 +24023,19 @@
         <v>214.6591768661928</v>
       </c>
       <c r="U20" t="n">
-        <v>21.33646847376869</v>
+        <v>251.1914704256355</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24063,10 +24063,10 @@
         <v>136.3123309040087</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2763558910462</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>53.89307085696264</v>
+        <v>8.278129036748396</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>152.5293386138371</v>
       </c>
       <c r="T21" t="n">
-        <v>72.86650132688698</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8735408797115</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1264674385354</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>154.5408756193934</v>
+        <v>23.85038263809435</v>
       </c>
       <c r="I22" t="n">
-        <v>129.4522437353803</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>32.23818737808909</v>
@@ -24172,7 +24172,7 @@
         <v>13.77095875701851</v>
       </c>
       <c r="R22" t="n">
-        <v>138.4217917777051</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>208.9505130324892</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1263111448031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24206,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>223.5427153540151</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24224,7 @@
         <v>319.7370352927488</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.1743877572077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>28.8045510966308</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24266,10 +24266,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.200703379060144</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,10 +24382,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.434565572167557</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>32.23818737808909</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24406,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>13.77095875701851</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>138.4217917777051</v>
       </c>
       <c r="S25" t="n">
-        <v>172.0934465047942</v>
+        <v>208.9505130324892</v>
       </c>
       <c r="T25" t="n">
         <v>224.251765770427</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,19 +24443,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.375456487622</v>
       </c>
       <c r="H26" t="n">
         <v>319.7370352927488</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>28.8045510966308</v>
       </c>
       <c r="S26" t="n">
         <v>165.1021531717909</v>
@@ -24497,10 +24497,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>135.3476779954696</v>
+        <v>251.1914704256355</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>189.1794618288509</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.1264674385354</v>
@@ -24649,25 +24649,25 @@
         <v>138.4217917777051</v>
       </c>
       <c r="S28" t="n">
-        <v>208.9505130324892</v>
+        <v>188.1685120436182</v>
       </c>
       <c r="T28" t="n">
-        <v>224.251765770427</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2718741608587</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.305299063625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.375456487622</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>319.7370352927488</v>
       </c>
       <c r="I29" t="n">
         <v>136.1743877572077</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>28.8045510966308</v>
       </c>
       <c r="S29" t="n">
         <v>165.1021531717909</v>
@@ -24734,19 +24734,19 @@
         <v>214.6591768661928</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>198.4644269367144</v>
       </c>
       <c r="V29" t="n">
-        <v>228.5546345574244</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>41.36246208935283</v>
+        <v>167.1264674385354</v>
       </c>
       <c r="H31" t="n">
-        <v>154.5408756193934</v>
+        <v>70.02673805673611</v>
       </c>
       <c r="I31" t="n">
-        <v>129.4522437353803</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>32.23818737808909</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>13.77095875701851</v>
       </c>
       <c r="R31" t="n">
-        <v>138.4217917777051</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>208.9505130324892</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>224.251765770427</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2718741608587</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.375456487622</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>319.7370352927488</v>
+        <v>119.3464032117001</v>
       </c>
       <c r="I32" t="n">
-        <v>23.24876243684622</v>
+        <v>136.1743877572077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>28.8045510966308</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>165.1021531717909</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1264674385354</v>
+        <v>98.48609589781047</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>129.4522437353803</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>32.23818737808909</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>247.3615236223058</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>124.3949284964793</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>324.2957407840492</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.1743877572077</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>165.1021531717909</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.6591768661928</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1914704256355</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25239,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4398552196089</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25248,7 @@
         <v>136.3123309040087</v>
       </c>
       <c r="H36" t="n">
-        <v>92.07113065525417</v>
+        <v>102.2763558910462</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>1.738070159921762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1264674385354</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154.5408756193934</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>129.4522437353803</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.77095875701851</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>138.4217917777051</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>26.67239848186304</v>
       </c>
       <c r="T37" t="n">
         <v>224.251765770427</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>325.2261069925889</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.375456487622</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>319.7370352927488</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.1743877572077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>28.8045510966308</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>165.1021531717909</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.6591768661928</v>
+        <v>130.9675527192187</v>
       </c>
       <c r="U38" t="n">
         <v>251.1914704256355</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25482,13 +25482,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.3123309040087</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>102.2763558910462</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>53.89307085696264</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>36.1338311471057</v>
+        <v>12.74245587631886</v>
       </c>
       <c r="S39" t="n">
-        <v>152.5293386138371</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8735408797115</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>109.6339974976798</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1264674385354</v>
+        <v>19.53168335404783</v>
       </c>
       <c r="H40" t="n">
         <v>154.5408756193934</v>
@@ -25597,22 +25597,22 @@
         <v>138.4217917777051</v>
       </c>
       <c r="S40" t="n">
-        <v>208.9505130324892</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>170.542299387403</v>
+        <v>224.251765770427</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2718741608587</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.375456487622</v>
       </c>
       <c r="H41" t="n">
-        <v>319.7370352927488</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.1743877572077</v>
@@ -25676,25 +25676,25 @@
         <v>28.8045510966308</v>
       </c>
       <c r="S41" t="n">
-        <v>165.1021531717909</v>
+        <v>45.50659380542612</v>
       </c>
       <c r="T41" t="n">
-        <v>214.6591768661928</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1914704256355</v>
       </c>
       <c r="V41" t="n">
-        <v>45.14566237613633</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25713,10 +25713,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>85.77235487704093</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25764,10 +25764,10 @@
         <v>225.8735408797115</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.61684818301669</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6.718584065289321</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>84.23535742561825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.77095875701851</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>208.9505130324892</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>224.251765770427</v>
       </c>
       <c r="U43" t="n">
         <v>286.2718741608587</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>247.1660587358606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>272.1117344053103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6111451512209</v>
+        <v>413.375456487622</v>
       </c>
       <c r="H44" t="n">
-        <v>201.0366298676467</v>
+        <v>184.9727239563476</v>
       </c>
       <c r="I44" t="n">
         <v>136.1743877572077</v>
@@ -25916,7 +25916,7 @@
         <v>165.1021531717909</v>
       </c>
       <c r="T44" t="n">
-        <v>214.6591768661928</v>
+        <v>95.95877144109082</v>
       </c>
       <c r="U44" t="n">
         <v>251.1914704256355</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>214.4766573810119</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>251.4736273196525</v>
       </c>
     </row>
     <row r="45">
@@ -25959,10 +25959,10 @@
         <v>136.3123309040087</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2763558910462</v>
+        <v>73.60285247001252</v>
       </c>
       <c r="I45" t="n">
-        <v>53.89307085696264</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.1338311471057</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>152.5293386138371</v>
+        <v>17.76502727743593</v>
       </c>
       <c r="T45" t="n">
-        <v>61.24401309435655</v>
+        <v>196.0083244307577</v>
       </c>
       <c r="U45" t="n">
-        <v>91.10922954331039</v>
+        <v>225.8735408797115</v>
       </c>
       <c r="V45" t="n">
         <v>98.03627581302413</v>
       </c>
       <c r="W45" t="n">
-        <v>132.9945777358176</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>70.91838444090322</v>
       </c>
     </row>
     <row r="46">
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>10.65673668653011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.11399441241248</v>
+        <v>167.1264674385354</v>
       </c>
       <c r="H46" t="n">
-        <v>19.7765642829923</v>
+        <v>154.5408756193934</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>129.4522437353803</v>
       </c>
       <c r="J46" t="n">
         <v>32.23818737808909</v>
@@ -26071,16 +26071,16 @@
         <v>138.4217917777051</v>
       </c>
       <c r="S46" t="n">
-        <v>208.9505130324892</v>
+        <v>90.25010760738715</v>
       </c>
       <c r="T46" t="n">
-        <v>224.251765770427</v>
+        <v>89.48745443402586</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2718741608587</v>
+        <v>151.5075628244576</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>117.3733319874269</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364694.9593159719</v>
+        <v>364694.9593159721</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424646.8138068095</v>
+        <v>424646.8138068094</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>642616.2275041271</v>
+        <v>642616.227504127</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733992.0458787465</v>
+        <v>733992.0458787464</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733992.0458787464</v>
+        <v>733992.0458787465</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641200.2485712514</v>
+        <v>641200.2485712516</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641200.2485712513</v>
+        <v>641200.2485712515</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363031.4180590295</v>
+        <v>363031.4180590294</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
-        <v>221051.201096951</v>
+        <v>221051.2010969509</v>
       </c>
       <c r="F2" t="n">
         <v>221051.2010969509</v>
       </c>
       <c r="G2" t="n">
-        <v>249308.5297987902</v>
+        <v>249308.5297987903</v>
       </c>
       <c r="H2" t="n">
-        <v>352044.8575087807</v>
+        <v>352044.8575087806</v>
       </c>
       <c r="I2" t="n">
         <v>395113.3590111957</v>
       </c>
       <c r="J2" t="n">
-        <v>395113.3590111955</v>
+        <v>395113.3590111957</v>
       </c>
       <c r="K2" t="n">
-        <v>395113.3590111957</v>
+        <v>395113.3590111958</v>
       </c>
       <c r="L2" t="n">
         <v>395113.3590111957</v>
       </c>
       <c r="M2" t="n">
-        <v>351377.4589356928</v>
+        <v>351377.458935693</v>
       </c>
       <c r="N2" t="n">
-        <v>351377.4589356929</v>
+        <v>351377.4589356931</v>
       </c>
       <c r="O2" t="n">
-        <v>327765.1705684026</v>
+        <v>327765.1705684024</v>
       </c>
       <c r="P2" t="n">
         <v>220252.5110012887</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="E4" t="n">
-        <v>12637.89848202206</v>
+        <v>12769.12584590215</v>
       </c>
       <c r="F4" t="n">
-        <v>12637.89848202206</v>
+        <v>12769.12584590215</v>
       </c>
       <c r="G4" t="n">
-        <v>27496.33410015246</v>
+        <v>27782.63699736674</v>
       </c>
       <c r="H4" t="n">
-        <v>81517.75725126124</v>
+        <v>82367.87461871537</v>
       </c>
       <c r="I4" t="n">
-        <v>104164.2913060295</v>
+        <v>105250.7675632734</v>
       </c>
       <c r="J4" t="n">
-        <v>104164.2913060295</v>
+        <v>105250.7675632734</v>
       </c>
       <c r="K4" t="n">
-        <v>104164.2913060295</v>
+        <v>105250.7675632734</v>
       </c>
       <c r="L4" t="n">
-        <v>104164.2913060295</v>
+        <v>105250.7675632734</v>
       </c>
       <c r="M4" t="n">
-        <v>81166.82178830612</v>
+        <v>82013.27648860725</v>
       </c>
       <c r="N4" t="n">
-        <v>81166.82178830612</v>
+        <v>82013.27648860725</v>
       </c>
       <c r="O4" t="n">
-        <v>68750.86873753961</v>
+        <v>69467.73977299985</v>
       </c>
       <c r="P4" t="n">
-        <v>12248.59596418205</v>
+        <v>12375.76161522216</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100016.8067870983</v>
+        <v>99236.15974446974</v>
       </c>
       <c r="C6" t="n">
-        <v>100016.8067870984</v>
+        <v>99236.15974446986</v>
       </c>
       <c r="D6" t="n">
-        <v>100016.8067870984</v>
+        <v>99236.15974446974</v>
       </c>
       <c r="E6" t="n">
-        <v>-236380.051966941</v>
+        <v>-236511.2793308212</v>
       </c>
       <c r="F6" t="n">
-        <v>189641.4984551382</v>
+        <v>189510.2710912581</v>
       </c>
       <c r="G6" t="n">
-        <v>178297.5878971864</v>
+        <v>178011.2849999722</v>
       </c>
       <c r="H6" t="n">
-        <v>140982.5571829768</v>
+        <v>140132.4398155225</v>
       </c>
       <c r="I6" t="n">
-        <v>204109.4381692357</v>
+        <v>203022.9619119918</v>
       </c>
       <c r="J6" t="n">
-        <v>239946.0986041226</v>
+        <v>238859.6223468789</v>
       </c>
       <c r="K6" t="n">
-        <v>239946.0986041228</v>
+        <v>238859.622346879</v>
       </c>
       <c r="L6" t="n">
-        <v>239946.0986041228</v>
+        <v>238859.6223468789</v>
       </c>
       <c r="M6" t="n">
-        <v>227528.3090141875</v>
+        <v>226681.8543138865</v>
       </c>
       <c r="N6" t="n">
-        <v>227528.3090141875</v>
+        <v>226681.8543138866</v>
       </c>
       <c r="O6" t="n">
-        <v>220824.1500012096</v>
+        <v>220107.2789657493</v>
       </c>
       <c r="P6" t="n">
-        <v>189359.0817159068</v>
+        <v>189231.9160648668</v>
       </c>
     </row>
   </sheetData>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>110.4248595662945</v>
+        <v>25.06752295853713</v>
       </c>
       <c r="L11" t="n">
         <v>68.37298577928402</v>
@@ -35428,7 +35428,7 @@
         <v>45.91242510239658</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>85.35733660775736</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>136.8526474974355</v>
       </c>
       <c r="O12" t="n">
-        <v>108.9298298153254</v>
+        <v>102.74919855085</v>
       </c>
       <c r="P12" t="n">
         <v>62.93694062572968</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.180631264475429</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>24.87754433769602</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>136.8526474974355</v>
@@ -35577,13 +35577,13 @@
         <v>136.8526474974355</v>
       </c>
       <c r="N13" t="n">
-        <v>4.608356880861692</v>
+        <v>131.3232475985492</v>
       </c>
       <c r="O13" t="n">
         <v>136.8526474974355</v>
       </c>
       <c r="P13" t="n">
-        <v>101.8373463799915</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>85.35733660775732</v>
       </c>
       <c r="K14" t="n">
         <v>25.06752295853713</v>
@@ -35662,7 +35662,7 @@
         <v>94.62695980270868</v>
       </c>
       <c r="P14" t="n">
-        <v>131.2697617101539</v>
+        <v>45.91242510239658</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.85315941747385</v>
+        <v>28.67252815299838</v>
       </c>
       <c r="L15" t="n">
         <v>85.34419812272048</v>
@@ -35741,7 +35741,7 @@
         <v>102.74919855085</v>
       </c>
       <c r="P15" t="n">
-        <v>62.93694062572968</v>
+        <v>69.1175718902051</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>136.8526474974355</v>
       </c>
       <c r="M16" t="n">
+        <v>83.55911696446054</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.608356880861692</v>
+      </c>
+      <c r="O16" t="n">
         <v>136.8526474974355</v>
-      </c>
-      <c r="N16" t="n">
-        <v>88.16747384532226</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.8373463799915</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>151.6262787542763</v>
       </c>
       <c r="K17" t="n">
-        <v>210.7371261741775</v>
+        <v>25.06752295853713</v>
       </c>
       <c r="L17" t="n">
-        <v>95.78870134490128</v>
+        <v>68.37298577928402</v>
       </c>
       <c r="M17" t="n">
         <v>108.0674514950344</v>
@@ -35899,10 +35899,10 @@
         <v>94.62695980270868</v>
       </c>
       <c r="P17" t="n">
-        <v>210.7371261741775</v>
+        <v>74.06219635584988</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>198.1339698453089</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>96.67789643457017</v>
       </c>
       <c r="K18" t="n">
-        <v>210.7371261741775</v>
+        <v>28.67252815299838</v>
       </c>
       <c r="L18" t="n">
         <v>85.34419812272048</v>
       </c>
       <c r="M18" t="n">
-        <v>119.1450458766463</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="N18" t="n">
         <v>136.8526474974355</v>
       </c>
       <c r="O18" t="n">
-        <v>102.74919855085</v>
+        <v>210.7371261741775</v>
       </c>
       <c r="P18" t="n">
-        <v>82.92776067973713</v>
+        <v>65.41235078005751</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>25.06752295853713</v>
+        <v>35.53531465766009</v>
       </c>
       <c r="L20" t="n">
         <v>486.0342003297345</v>
@@ -36136,7 +36136,7 @@
         <v>475.4271410654541</v>
       </c>
       <c r="P20" t="n">
-        <v>56.38021680151953</v>
+        <v>45.91242510239658</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.67252815299838</v>
+        <v>293.137765165577</v>
       </c>
       <c r="L21" t="n">
         <v>456.1845434261796</v>
       </c>
       <c r="M21" t="n">
-        <v>532.2061805895323</v>
+        <v>119.1450458766463</v>
       </c>
       <c r="N21" t="n">
-        <v>530.7097317122902</v>
+        <v>159.1173256850566</v>
       </c>
       <c r="O21" t="n">
         <v>496.6115178275795</v>
       </c>
       <c r="P21" t="n">
-        <v>62.93694062572968</v>
+        <v>381.3997092656668</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>201.7255350876039</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>35.81004847333394</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>349.2129355297019</v>
@@ -36370,13 +36370,13 @@
         <v>551.823432757122</v>
       </c>
       <c r="O23" t="n">
-        <v>94.62695980270868</v>
+        <v>475.4271410654541</v>
       </c>
       <c r="P23" t="n">
-        <v>367.7111332738792</v>
+        <v>220.8549703297768</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.1339698453089</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>105.6927630125947</v>
+        <v>293.137765165577</v>
       </c>
       <c r="L24" t="n">
         <v>456.1845434261796</v>
@@ -36452,7 +36452,7 @@
         <v>496.6115178275795</v>
       </c>
       <c r="P24" t="n">
-        <v>381.3997092656668</v>
+        <v>193.9547071126848</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>475.4271410654541</v>
       </c>
       <c r="P26" t="n">
-        <v>220.8549703297768</v>
+        <v>45.91242510239658</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>174.9425452273802</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>90.17183710296719</v>
       </c>
       <c r="K27" t="n">
-        <v>105.6927630125947</v>
+        <v>293.137765165577</v>
       </c>
       <c r="L27" t="n">
         <v>456.1845434261796</v>
@@ -36683,7 +36683,7 @@
         <v>584.8501096266461</v>
       </c>
       <c r="N27" t="n">
-        <v>616.1950218409891</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="O27" t="n">
         <v>496.6115178275795</v>
@@ -36692,7 +36692,7 @@
         <v>381.3997092656668</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>201.7255350876039</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.17183710296719</v>
       </c>
       <c r="K30" t="n">
         <v>293.137765165577</v>
@@ -36920,16 +36920,16 @@
         <v>584.8501096266461</v>
       </c>
       <c r="N30" t="n">
-        <v>616.1950218409891</v>
+        <v>136.8526474974355</v>
       </c>
       <c r="O30" t="n">
         <v>496.6115178275795</v>
       </c>
       <c r="P30" t="n">
-        <v>193.9547071126848</v>
+        <v>381.3997092656668</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>201.7255350876039</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>349.2129355297019</v>
       </c>
       <c r="L32" t="n">
-        <v>486.0342003297345</v>
+        <v>339.1780373856318</v>
       </c>
       <c r="M32" t="n">
         <v>557.5809849878668</v>
@@ -37084,7 +37084,7 @@
         <v>475.4271410654541</v>
       </c>
       <c r="P32" t="n">
-        <v>220.8549703297768</v>
+        <v>367.7111332738792</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>28.67252815299838</v>
       </c>
       <c r="L33" t="n">
-        <v>456.1845434261796</v>
+        <v>331.479243198172</v>
       </c>
       <c r="M33" t="n">
         <v>584.8501096266461</v>
@@ -37166,7 +37166,7 @@
         <v>381.3997092656668</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.02023485959639</v>
+        <v>201.7255350876039</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>25.06752295853713</v>
+        <v>349.2129355297019</v>
       </c>
       <c r="L35" t="n">
         <v>486.0342003297345</v>
@@ -37315,13 +37315,13 @@
         <v>530.117844428498</v>
       </c>
       <c r="N35" t="n">
-        <v>530.117844428498</v>
+        <v>114.4765083451377</v>
       </c>
       <c r="O35" t="n">
-        <v>475.4271410654541</v>
+        <v>251.4998530018487</v>
       </c>
       <c r="P35" t="n">
-        <v>52.28792169807846</v>
+        <v>367.7111332738792</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>96.67789643457017</v>
       </c>
       <c r="K36" t="n">
-        <v>293.137765165577</v>
+        <v>28.67252815299838</v>
       </c>
       <c r="L36" t="n">
         <v>85.34419812272048</v>
       </c>
       <c r="M36" t="n">
-        <v>215.7635436641881</v>
+        <v>530.117844428498</v>
       </c>
       <c r="N36" t="n">
-        <v>530.117844428498</v>
+        <v>480.2287806767667</v>
       </c>
       <c r="O36" t="n">
         <v>496.6115178275795</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>151.6262787542763</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>349.2129355297019</v>
+        <v>25.06752295853713</v>
       </c>
       <c r="L38" t="n">
-        <v>486.0342003297345</v>
+        <v>353.2772001713702</v>
       </c>
       <c r="M38" t="n">
-        <v>476.3629857820989</v>
+        <v>530.117844428498</v>
       </c>
       <c r="N38" t="n">
-        <v>114.4765083451377</v>
+        <v>530.117844428498</v>
       </c>
       <c r="O38" t="n">
-        <v>475.4271410654541</v>
+        <v>94.62695980270868</v>
       </c>
       <c r="P38" t="n">
-        <v>45.91242510239658</v>
+        <v>367.7111332738792</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>198.1339698453089</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.67252815299838</v>
+        <v>293.137765165577</v>
       </c>
       <c r="L39" t="n">
         <v>456.1845434261796</v>
       </c>
       <c r="M39" t="n">
-        <v>397.6059936513361</v>
+        <v>334.8662917263614</v>
       </c>
       <c r="N39" t="n">
         <v>136.8526474974355</v>
@@ -37640,7 +37640,7 @@
         <v>381.3997092656668</v>
       </c>
       <c r="Q39" t="n">
-        <v>201.7255350876039</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>349.2129355297019</v>
+        <v>25.06752295853713</v>
       </c>
       <c r="L41" t="n">
-        <v>410.7983972680096</v>
+        <v>456.233365751756</v>
       </c>
       <c r="M41" t="n">
-        <v>108.0674514950344</v>
+        <v>456.233365751756</v>
       </c>
       <c r="N41" t="n">
-        <v>114.4765083451377</v>
+        <v>456.233365751756</v>
       </c>
       <c r="O41" t="n">
-        <v>456.233365751756</v>
+        <v>168.685776502008</v>
       </c>
       <c r="P41" t="n">
-        <v>367.7111332738792</v>
+        <v>45.91242510239658</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>198.1339698453089</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.67789643457017</v>
       </c>
       <c r="K42" t="n">
-        <v>28.67252815299838</v>
+        <v>293.137765165577</v>
       </c>
       <c r="L42" t="n">
         <v>456.1845434261796</v>
       </c>
       <c r="M42" t="n">
-        <v>145.4314624818788</v>
+        <v>137.772496235636</v>
       </c>
       <c r="N42" t="n">
         <v>136.8526474974355</v>
       </c>
       <c r="O42" t="n">
-        <v>456.233365751756</v>
+        <v>102.74919855085</v>
       </c>
       <c r="P42" t="n">
         <v>381.3997092656668</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>25.06752295853713</v>
+        <v>102.1558921407845</v>
       </c>
       <c r="L44" t="n">
         <v>68.37298577928402</v>
@@ -38035,7 +38035,7 @@
         <v>45.91242510239658</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.0883691822474</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>134.7643113364011</v>
+        <v>129.3192886561424</v>
       </c>
       <c r="M46" t="n">
         <v>134.7643113364011</v>
@@ -38187,10 +38187,10 @@
         <v>134.7643113364011</v>
       </c>
       <c r="O46" t="n">
-        <v>27.48194227615099</v>
+        <v>134.7643113364011</v>
       </c>
       <c r="P46" t="n">
-        <v>101.8373463799915</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
